--- a/Data/Experimental_Responses_28FEB.xlsx
+++ b/Data/Experimental_Responses_28FEB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="40">
   <si>
     <t>With Linear Inversion</t>
   </si>
@@ -89,6 +89,9 @@
     <t>Thruster Curve</t>
   </si>
   <si>
+    <t>Rise Time [s]</t>
+  </si>
+  <si>
     <t>0-0.25</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>1.25-1.50</t>
@@ -145,11 +151,11 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
-    <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,6 +180,23 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <strike val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -207,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -285,6 +308,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -311,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +414,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,19 +442,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,19 +619,19 @@
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">28FEB!M21</f>
-        <v>0.279701265964678</v>
-      </c>
-      <c r="H4" s="10" t="n">
+        <v>8.9682698799254</v>
+      </c>
+      <c r="H4" s="10" t="str">
         <f aca="false">28FEB!N21</f>
-        <v>1.62560852773421</v>
+        <v>NaN</v>
       </c>
       <c r="I4" s="10" t="n">
         <f aca="false">28FEB!O21</f>
-        <v>1.28694963043918</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11" t="n">
         <f aca="false">28FEB!P21</f>
-        <v>-2.009063101438E-007</v>
+        <v>0.0354770771487911</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,10 +797,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P70"/>
+  <dimension ref="B2:AX70"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -815,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>7</v>
@@ -832,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>12</v>
@@ -862,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>33.1769292026525</v>
+        <v>3.22797675566285</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>56.7263674829983</v>
+        <v>30.6769399289786</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19" t="n">
-        <v>0.192587853849019</v>
+        <v>19.1752570172957</v>
+      </c>
+      <c r="P4" s="18" t="n">
+        <v>-0.00571052451795417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,16 +930,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>12</v>
@@ -910,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="18" t="n">
-        <v>9.07474631714217</v>
-      </c>
-      <c r="N5" s="18" t="n">
-        <v>16.6663270840931</v>
+        <v>2.73724222095719</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19" t="n">
-        <v>0.111656127273502</v>
+        <v>16.5042336863179</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>0.0328360052001993</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,16 +978,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>12</v>
@@ -958,16 +1008,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="18" t="n">
-        <v>0.283121853273233</v>
+        <v>3.04694443198196</v>
       </c>
       <c r="N6" s="18" t="n">
-        <v>1.871175047152</v>
+        <v>59.6852480835383</v>
       </c>
       <c r="O6" s="18" t="n">
-        <v>0.103429416102596</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>0.0240806540912453</v>
+        <v>12.25421010609</v>
+      </c>
+      <c r="P6" s="18" t="n">
+        <v>0.00334844791475028</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,16 +1026,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="9" t="n">
         <v>12</v>
@@ -1006,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="18" t="n">
-        <v>14.8920843333986</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <v>23.9628849484037</v>
+        <v>4.06716736288852</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>0.901217375686492</v>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>-2.8785102695883E-007</v>
+        <v>19.7880907626967</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>0.000506785343509147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>24</v>
@@ -1054,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="18" t="n">
-        <v>58.465054900757</v>
-      </c>
-      <c r="N8" s="18" t="n">
-        <v>91.6204277579062</v>
+        <v>3.3523611925697</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19" t="n">
-        <v>0.173001511680047</v>
+        <v>11.0617067650057</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>0.0213113504650942</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,16 +1122,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>24</v>
@@ -1102,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="18" t="n">
-        <v>66.6754180159391</v>
-      </c>
-      <c r="N9" s="18" t="n">
-        <v>93.9226989278462</v>
+        <v>3.99213788009121</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19" t="n">
-        <v>0.0928451093008897</v>
+        <v>8.32438997354505</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>0.00413738092200858</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,16 +1170,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>24</v>
@@ -1150,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>1.69856572589102</v>
-      </c>
-      <c r="N10" s="18" t="n">
-        <v>21.5229589092088</v>
+        <v>0.515906582811155</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>44.0883253352231</v>
-      </c>
-      <c r="P10" s="19" t="n">
-        <v>1.53856340445735E-008</v>
+        <v>7.58064915760484</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>0.00338835425193551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>24</v>
@@ -1197,17 +1247,17 @@
       <c r="L11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="18" t="n">
-        <v>0.346340866919931</v>
-      </c>
-      <c r="N11" s="18" t="n">
-        <v>23.9336250953305</v>
+      <c r="M11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O11" s="18" t="n">
-        <v>81.1547815147712</v>
-      </c>
-      <c r="P11" s="19" t="n">
-        <v>-0.000618770955740478</v>
+        <v>0</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>0.0951369247835006</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>24</v>
@@ -1246,16 +1296,34 @@
         <v>0</v>
       </c>
       <c r="M12" s="18" t="n">
-        <v>33.5223338482884</v>
-      </c>
-      <c r="N12" s="18" t="n">
-        <v>57.3076822669478</v>
+        <v>3.69258078198996</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="19" t="n">
-        <v>0.192591180329164</v>
+      <c r="P12" s="18" t="n">
+        <v>0.0354906966506912</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-0.00571052451795417</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.0328360052001993</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0.00334844791475028</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0.000506785343509147</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>0.0213113504650942</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>0.00413738092200858</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>60</v>
@@ -1294,16 +1362,34 @@
         <v>0</v>
       </c>
       <c r="M13" s="18" t="n">
-        <v>33.1626240331351</v>
+        <v>0.709761489267446</v>
       </c>
       <c r="N13" s="18" t="n">
-        <v>56.7430511344639</v>
+        <v>20.9576418651238</v>
       </c>
       <c r="O13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19" t="n">
-        <v>0.192587886108958</v>
+        <v>5.7480330163417</v>
+      </c>
+      <c r="P13" s="18" t="n">
+        <v>0.0253786328031238</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>19.1752570172957</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>16.5042336863179</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>12.25421010609</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>19.7880907626967</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>11.0617067650057</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>8.32438997354505</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,16 +1398,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>12</v>
@@ -1342,16 +1428,34 @@
         <v>0</v>
       </c>
       <c r="M14" s="18" t="n">
-        <v>33.1957989804145</v>
-      </c>
-      <c r="N14" s="18" t="n">
-        <v>56.7955623625821</v>
+        <v>3.50340178679419</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O14" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="19" t="n">
-        <v>0.192588177357502</v>
+      <c r="P14" s="18" t="n">
+        <v>0.0114756388206905</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>3.22797675566285</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>2.73724222095719</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>3.04694443198196</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>4.06716736288852</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>3.3523611925697</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>3.99213788009121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,16 +1464,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>24</v>
@@ -1390,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="18" t="n">
-        <v>36.5879095028546</v>
-      </c>
-      <c r="N15" s="18" t="n">
-        <v>62.1705389398956</v>
+        <v>0.516312227875144</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O15" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19" t="n">
-        <v>0.192631416167793</v>
+        <v>1.05283153709905</v>
+      </c>
+      <c r="P15" s="18" t="n">
+        <v>0.00600482981305728</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,16 +1512,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>40</v>
@@ -1438,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="18" t="n">
-        <v>2.93743316049985</v>
-      </c>
-      <c r="N16" s="18" t="n">
-        <v>6.02321877679942</v>
+        <v>0.753845683665764</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O16" s="18" t="n">
-        <v>0.000895703013670257</v>
-      </c>
-      <c r="P16" s="19" t="n">
-        <v>-0.648500925209512</v>
+        <v>1.36262461520025</v>
+      </c>
+      <c r="P16" s="18" t="n">
+        <v>0.00454132615461234</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>40</v>
@@ -1486,16 +1590,34 @@
         <v>0</v>
       </c>
       <c r="M17" s="18" t="n">
-        <v>0.546241734723377</v>
+        <v>0.42505759700324</v>
       </c>
       <c r="N17" s="18" t="n">
-        <v>55.7846599751225</v>
+        <v>29.1247495593924</v>
       </c>
       <c r="O17" s="18" t="n">
-        <v>0.0219152203397854</v>
-      </c>
-      <c r="P17" s="19" t="n">
-        <v>0.00965953243659845</v>
+        <v>5.9984445894204</v>
+      </c>
+      <c r="P17" s="18" t="n">
+        <v>0.00079953141189601</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>30.6769399289786</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>59.6852480835383</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,16 +1626,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>40</v>
@@ -1534,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="18" t="n">
-        <v>0.285880374231207</v>
+        <v>3.37733418938405</v>
       </c>
       <c r="N18" s="18" t="n">
-        <v>1.85788604079369</v>
+        <v>30.7438795703168</v>
       </c>
       <c r="O18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="19" t="n">
-        <v>0.0238946813539275</v>
+        <v>6.64948889646426</v>
+      </c>
+      <c r="P18" s="18" t="n">
+        <v>0.00609034051901528</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,16 +1674,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>40</v>
@@ -1582,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="18" t="n">
-        <v>0.305927278739768</v>
-      </c>
-      <c r="N19" s="18" t="n">
-        <v>2.07016552544315</v>
+        <v>4.4059715014993</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O19" s="18" t="n">
-        <v>0.0551110290220924</v>
-      </c>
-      <c r="P19" s="19" t="n">
-        <v>0.0219943836953044</v>
+        <v>3.38752718541324</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>0.0269404051651002</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,16 +1722,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>40</v>
@@ -1630,16 +1752,109 @@
         <v>0</v>
       </c>
       <c r="M20" s="18" t="n">
-        <v>0.846333791798762</v>
-      </c>
-      <c r="N20" s="18" t="n">
-        <v>16.9174181294322</v>
+        <v>0.538596668354989</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="19" t="n">
-        <v>3.08897870205105E-005</v>
+        <v>0.832305880482687</v>
+      </c>
+      <c r="P20" s="18" t="n">
+        <v>0.0641501873000623</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>3.22797675566285</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>2.73724222095719</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>3.04694443198196</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>4.06716736288852</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>3.3523611925697</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>3.99213788009121</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0.515906582811155</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>3.69258078198996</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>0.709761489267446</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>3.50340178679419</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>0.516312227875144</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>0.753845683665764</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>0.42505759700324</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>3.37733418938405</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>4.4059715014993</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>0.538596668354989</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>8.9682698799254</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>10.3274263594302</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>3.53606101772585</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>0.6112403048585</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>0.751998931151469</v>
+      </c>
+      <c r="AP20" s="0" t="n">
+        <v>0.238438096994859</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
+        <v>0.0213030247905021</v>
+      </c>
+      <c r="AR20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS20" s="0" t="n">
+        <v>1.02263772607962</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>0.29671976109813</v>
+      </c>
+      <c r="AU20" s="0" t="n">
+        <v>0.693120852211539</v>
+      </c>
+      <c r="AV20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW20" s="0" t="n">
+        <v>0.343512850439895</v>
+      </c>
+      <c r="AX20" s="0" t="n">
+        <v>0.00141430369644305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,16 +1863,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>24</v>
@@ -1678,16 +1893,109 @@
         <v>0</v>
       </c>
       <c r="M21" s="18" t="n">
-        <v>0.279701265964678</v>
-      </c>
-      <c r="N21" s="18" t="n">
-        <v>1.62560852773421</v>
+        <v>8.9682698799254</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O21" s="18" t="n">
-        <v>1.28694963043918</v>
-      </c>
-      <c r="P21" s="19" t="n">
-        <v>-2.009063101438E-007</v>
+        <v>0</v>
+      </c>
+      <c r="P21" s="18" t="n">
+        <v>0.0354770771487911</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>30.6769399289786</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>59.6852480835383</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>20.9576418651238</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>29.1247495593924</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>30.7438795703168</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX21" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,16 +2004,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>24</v>
@@ -1726,16 +2034,109 @@
         <v>0</v>
       </c>
       <c r="M22" s="18" t="n">
-        <v>6.99219741030611</v>
-      </c>
-      <c r="N22" s="18" t="n">
-        <v>13.7428565533787</v>
+        <v>10.3274263594302</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="19" t="n">
-        <v>0.00337710220788101</v>
+        <v>2.16500670508026</v>
+      </c>
+      <c r="P22" s="18" t="n">
+        <v>0.081776717792589</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>19.1752570172957</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>16.5042336863179</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>12.25421010609</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>19.7880907626967</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>11.0617067650057</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>8.32438997354505</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>7.58064915760484</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>5.7480330163417</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>1.05283153709905</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>1.36262461520025</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>5.9984445894204</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>6.64948889646426</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>3.38752718541324</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>0.832305880482687</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>2.16500670508026</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>4.935539334941</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>0.921644819828593</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>6.56173676422784</v>
+      </c>
+      <c r="AP22" s="0" t="n">
+        <v>3.50101987624913</v>
+      </c>
+      <c r="AQ22" s="0" t="n">
+        <v>8.95491754118585</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>19.9219024234202</v>
+      </c>
+      <c r="AS22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>7.06387831941078</v>
+      </c>
+      <c r="AU22" s="0" t="n">
+        <v>0.514248387670269</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="0" t="n">
+        <v>75.3584601779394</v>
+      </c>
+      <c r="AX22" s="0" t="n">
+        <v>54.4135875096363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,16 +2145,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>12</v>
@@ -1774,16 +2175,109 @@
         <v>0</v>
       </c>
       <c r="M23" s="18" t="n">
-        <v>2.78849159238904</v>
-      </c>
-      <c r="N23" s="18" t="n">
-        <v>7.54356779108686</v>
+        <v>3.53606101772585</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="19" t="n">
-        <v>0.00026906055825715</v>
+        <v>4.935539334941</v>
+      </c>
+      <c r="P23" s="18" t="n">
+        <v>0.010224084472318</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>-0.00571052451795417</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0.0328360052001993</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0.00334844791475028</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>0.000506785343509147</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>0.0213113504650942</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>0.00413738092200858</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>0.00338835425193551</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>0.0951369247835006</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>0.0354906966506912</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>0.0253786328031238</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>0.0114756388206905</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>0.00600482981305728</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>0.00454132615461234</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>0.00079953141189601</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>0.00609034051901528</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <v>0.0269404051651002</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <v>0.0641501873000623</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <v>0.0354770771487911</v>
+      </c>
+      <c r="AL23" s="0" t="n">
+        <v>0.081776717792589</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>0.010224084472318</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>0.0281133493291585</v>
+      </c>
+      <c r="AO23" s="0" t="n">
+        <v>-0.0299394097725514</v>
+      </c>
+      <c r="AP23" s="0" t="n">
+        <v>0.001741166729053</v>
+      </c>
+      <c r="AQ23" s="0" t="n">
+        <v>-0.0913496529526054</v>
+      </c>
+      <c r="AR23" s="0" t="n">
+        <v>-0.247365814679703</v>
+      </c>
+      <c r="AS23" s="0" t="n">
+        <v>0.04028139614853</v>
+      </c>
+      <c r="AT23" s="0" t="n">
+        <v>-0.0556470225967962</v>
+      </c>
+      <c r="AU23" s="0" t="n">
+        <v>0.0041791532592248</v>
+      </c>
+      <c r="AV23" s="0" t="n">
+        <v>0.0603601922772958</v>
+      </c>
+      <c r="AW23" s="0" t="n">
+        <v>-0.00377289106763806</v>
+      </c>
+      <c r="AX23" s="0" t="n">
+        <v>-0.0952519437997548</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,16 +2286,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>12</v>
@@ -1822,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="18" t="n">
-        <v>0.717900745152544</v>
-      </c>
-      <c r="N24" s="18" t="n">
-        <v>3.63646927811634</v>
+        <v>0.6112403048585</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O24" s="18" t="n">
-        <v>0.0950544359872518</v>
-      </c>
-      <c r="P24" s="19" t="n">
-        <v>-0.000471012492275991</v>
+        <v>0.921644819828593</v>
+      </c>
+      <c r="P24" s="18" t="n">
+        <v>0.0281133493291585</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,16 +2334,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>24</v>
@@ -1870,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="18" t="n">
-        <v>0.654448171211672</v>
-      </c>
-      <c r="N25" s="18" t="n">
-        <v>1.97448260562947</v>
+        <v>0.751998931151469</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O25" s="18" t="n">
-        <v>0.284702551883331</v>
-      </c>
-      <c r="P25" s="19" t="n">
-        <v>0.000143001696818024</v>
+        <v>6.56173676422784</v>
+      </c>
+      <c r="P25" s="18" t="n">
+        <v>-0.0299394097725514</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,16 +2382,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>24</v>
@@ -1918,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="18" t="n">
-        <v>1.75827273636371</v>
-      </c>
-      <c r="N26" s="18" t="n">
-        <v>5.77323983823695</v>
+        <v>0.238438096994859</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="O26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="19" t="n">
-        <v>0.000102389930915603</v>
+        <v>3.50101987624913</v>
+      </c>
+      <c r="P26" s="18" t="n">
+        <v>0.001741166729053</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,16 +2430,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>40</v>
@@ -1965,10 +2459,18 @@
       <c r="L27" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="M27" s="18" t="n">
+        <v>0.0213030247905021</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="18" t="n">
+        <v>8.95491754118585</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>-0.0913496529526054</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
@@ -1976,16 +2478,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>40</v>
@@ -2005,10 +2507,18 @@
       <c r="L28" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="22"/>
+      <c r="M28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="18" t="n">
+        <v>19.9219024234202</v>
+      </c>
+      <c r="P28" s="18" t="n">
+        <v>-0.247365814679703</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
@@ -2016,16 +2526,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>40</v>
@@ -2045,50 +2555,66 @@
       <c r="L29" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
+      <c r="M29" s="18" t="n">
+        <v>1.02263772607962</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18" t="n">
+        <v>0.04028139614853</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
         <f aca="false">B29+1</f>
         <v>27</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="D30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21" t="n">
+        <v>0.29671976109813</v>
+      </c>
+      <c r="N30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H30" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="22"/>
+      <c r="O30" s="21" t="n">
+        <v>7.06387831941078</v>
+      </c>
+      <c r="P30" s="21" t="n">
+        <v>-0.0556470225967962</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -2096,39 +2622,47 @@
         <v>28</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18" t="n">
+        <v>0.693120852211539</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="O31" s="18" t="n">
+        <v>0.514248387670269</v>
+      </c>
+      <c r="P31" s="18" t="n">
+        <v>0.0041791532592248</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7" t="n">
@@ -2136,16 +2670,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>40</v>
@@ -2165,10 +2699,18 @@
       <c r="L32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="M32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18" t="n">
+        <v>0.0603601922772958</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="n">
@@ -2176,16 +2718,16 @@
         <v>30</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>80</v>
@@ -2205,50 +2747,66 @@
       <c r="L33" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="M33" s="18" t="n">
+        <v>0.343512850439895</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="18" t="n">
+        <v>75.3584601779394</v>
+      </c>
+      <c r="P33" s="18" t="n">
+        <v>-0.00377289106763806</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
         <f aca="false">B33+1</f>
         <v>31</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="17" t="s">
+      <c r="D34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="H34" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21" t="n">
+        <v>0.00141430369644305</v>
+      </c>
+      <c r="N34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
+      <c r="O34" s="21" t="n">
+        <v>54.4135875096363</v>
+      </c>
+      <c r="P34" s="21" t="n">
+        <v>-0.0952519437997548</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
@@ -2922,8 +3480,8 @@
   </sheetPr>
   <dimension ref="B2:Q65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2937,7 +3495,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3006,16 +3564,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>12</v>
@@ -3035,16 +3593,16 @@
       <c r="L4" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M4" s="18" t="n">
+      <c r="M4" s="23" t="n">
         <v>33.1769292026525</v>
       </c>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="23" t="n">
         <v>56.7263674829983</v>
       </c>
-      <c r="O4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19" t="n">
+      <c r="O4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24" t="n">
         <v>0.192587853849019</v>
       </c>
     </row>
@@ -3054,16 +3612,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>12</v>
@@ -3083,16 +3641,16 @@
       <c r="L5" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M5" s="18" t="n">
+      <c r="M5" s="23" t="n">
         <v>9.07474631714217</v>
       </c>
-      <c r="N5" s="18" t="n">
+      <c r="N5" s="23" t="n">
         <v>16.6663270840931</v>
       </c>
-      <c r="O5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19" t="n">
+      <c r="O5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24" t="n">
         <v>0.111656127273502</v>
       </c>
     </row>
@@ -3102,16 +3660,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>12</v>
@@ -3131,16 +3689,16 @@
       <c r="L6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="23" t="n">
         <v>0.283121853273233</v>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="23" t="n">
         <v>1.871175047152</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="23" t="n">
         <v>0.103429416102596</v>
       </c>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="24" t="n">
         <v>0.0240806540912453</v>
       </c>
     </row>
@@ -3150,16 +3708,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="9" t="n">
         <v>12</v>
@@ -3179,16 +3737,16 @@
       <c r="L7" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M7" s="18" t="n">
+      <c r="M7" s="23" t="n">
         <v>14.8920843333986</v>
       </c>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="23" t="n">
         <v>23.9628849484037</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="23" t="n">
         <v>0.901217375686492</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="24" t="n">
         <v>-2.8785102695883E-007</v>
       </c>
     </row>
@@ -3198,16 +3756,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>12</v>
@@ -3227,16 +3785,16 @@
       <c r="L8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="23" t="n">
         <v>58.465054900757</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="23" t="n">
         <v>91.6204277579062</v>
       </c>
-      <c r="O8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19" t="n">
+      <c r="O8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24" t="n">
         <v>0.173001511680047</v>
       </c>
     </row>
@@ -3246,16 +3804,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>12</v>
@@ -3275,16 +3833,16 @@
       <c r="L9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="23" t="n">
         <v>66.6754180159391</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="23" t="n">
         <v>93.9226989278462</v>
       </c>
-      <c r="O9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19" t="n">
+      <c r="O9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24" t="n">
         <v>0.0928451093008897</v>
       </c>
     </row>
@@ -3294,16 +3852,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>12</v>
@@ -3323,16 +3881,16 @@
       <c r="L10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M10" s="18" t="n">
+      <c r="M10" s="23" t="n">
         <v>1.69856572589102</v>
       </c>
-      <c r="N10" s="18" t="n">
+      <c r="N10" s="23" t="n">
         <v>21.5229589092088</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="23" t="n">
         <v>44.0883253352231</v>
       </c>
-      <c r="P10" s="19" t="n">
+      <c r="P10" s="24" t="n">
         <v>1.53856340445735E-008</v>
       </c>
     </row>
@@ -3342,16 +3900,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>12</v>
@@ -3371,16 +3929,16 @@
       <c r="L11" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="23" t="n">
         <v>0.346340866919931</v>
       </c>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="23" t="n">
         <v>23.9336250953305</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="23" t="n">
         <v>81.1547815147712</v>
       </c>
-      <c r="P11" s="19" t="n">
+      <c r="P11" s="24" t="n">
         <v>-0.000618770955740478</v>
       </c>
     </row>
@@ -3390,16 +3948,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>12</v>
@@ -3419,16 +3977,16 @@
       <c r="L12" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="M12" s="18" t="n">
+      <c r="M12" s="23" t="n">
         <v>33.5223338482884</v>
       </c>
-      <c r="N12" s="18" t="n">
+      <c r="N12" s="23" t="n">
         <v>57.3076822669478</v>
       </c>
-      <c r="O12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19" t="n">
+      <c r="O12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24" t="n">
         <v>0.192591180329164</v>
       </c>
     </row>
@@ -3438,16 +3996,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>12</v>
@@ -3467,16 +4025,16 @@
       <c r="L13" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="M13" s="18" t="n">
+      <c r="M13" s="23" t="n">
         <v>33.1626240331351</v>
       </c>
-      <c r="N13" s="18" t="n">
+      <c r="N13" s="23" t="n">
         <v>56.7430511344639</v>
       </c>
-      <c r="O13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19" t="n">
+      <c r="O13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24" t="n">
         <v>0.192587886108958</v>
       </c>
     </row>
@@ -3486,16 +4044,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>12</v>
@@ -3515,16 +4073,16 @@
       <c r="L14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="23" t="n">
         <v>33.1957989804145</v>
       </c>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="23" t="n">
         <v>56.7955623625821</v>
       </c>
-      <c r="O14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19" t="n">
+      <c r="O14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="24" t="n">
         <v>0.192588177357502</v>
       </c>
     </row>
@@ -3534,16 +4092,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>12</v>
@@ -3563,16 +4121,16 @@
       <c r="L15" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M15" s="18" t="n">
+      <c r="M15" s="23" t="n">
         <v>36.5879095028546</v>
       </c>
-      <c r="N15" s="18" t="n">
+      <c r="N15" s="23" t="n">
         <v>62.1705389398956</v>
       </c>
-      <c r="O15" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19" t="n">
+      <c r="O15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24" t="n">
         <v>0.192631416167793</v>
       </c>
     </row>
@@ -3582,16 +4140,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>12</v>
@@ -3611,16 +4169,16 @@
       <c r="L16" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M16" s="18" t="n">
+      <c r="M16" s="23" t="n">
         <v>2.93743316049985</v>
       </c>
-      <c r="N16" s="18" t="n">
+      <c r="N16" s="23" t="n">
         <v>6.02321877679942</v>
       </c>
-      <c r="O16" s="18" t="n">
+      <c r="O16" s="23" t="n">
         <v>0.000895703013670257</v>
       </c>
-      <c r="P16" s="19" t="n">
+      <c r="P16" s="24" t="n">
         <v>-0.648500925209512</v>
       </c>
     </row>
@@ -3630,16 +4188,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>12</v>
@@ -3659,16 +4217,16 @@
       <c r="L17" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M17" s="18" t="n">
+      <c r="M17" s="23" t="n">
         <v>0.546241734723377</v>
       </c>
-      <c r="N17" s="18" t="n">
+      <c r="N17" s="23" t="n">
         <v>55.7846599751225</v>
       </c>
-      <c r="O17" s="18" t="n">
+      <c r="O17" s="23" t="n">
         <v>0.0219152203397854</v>
       </c>
-      <c r="P17" s="19" t="n">
+      <c r="P17" s="24" t="n">
         <v>0.00965953243659845</v>
       </c>
     </row>
@@ -3678,16 +4236,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>12</v>
@@ -3707,16 +4265,16 @@
       <c r="L18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M18" s="18" t="n">
+      <c r="M18" s="23" t="n">
         <v>0.285880374231207</v>
       </c>
-      <c r="N18" s="18" t="n">
+      <c r="N18" s="23" t="n">
         <v>1.85788604079369</v>
       </c>
-      <c r="O18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="19" t="n">
+      <c r="O18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24" t="n">
         <v>0.0238946813539275</v>
       </c>
     </row>
@@ -3726,16 +4284,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>12</v>
@@ -3755,16 +4313,16 @@
       <c r="L19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M19" s="18" t="n">
+      <c r="M19" s="23" t="n">
         <v>0.305927278739768</v>
       </c>
-      <c r="N19" s="18" t="n">
+      <c r="N19" s="23" t="n">
         <v>2.07016552544315</v>
       </c>
-      <c r="O19" s="18" t="n">
+      <c r="O19" s="23" t="n">
         <v>0.0551110290220924</v>
       </c>
-      <c r="P19" s="19" t="n">
+      <c r="P19" s="24" t="n">
         <v>0.0219943836953044</v>
       </c>
     </row>
@@ -3774,16 +4332,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>12</v>
@@ -3803,16 +4361,16 @@
       <c r="L20" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="18" t="n">
+      <c r="M20" s="23" t="n">
         <v>0.846333791798762</v>
       </c>
-      <c r="N20" s="18" t="n">
+      <c r="N20" s="23" t="n">
         <v>16.9174181294322</v>
       </c>
-      <c r="O20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="19" t="n">
+      <c r="O20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24" t="n">
         <v>3.08897870205105E-005</v>
       </c>
     </row>
@@ -3822,16 +4380,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>12</v>
@@ -3851,16 +4409,16 @@
       <c r="L21" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M21" s="18" t="n">
+      <c r="M21" s="23" t="n">
         <v>0.279701265964678</v>
       </c>
-      <c r="N21" s="18" t="n">
+      <c r="N21" s="23" t="n">
         <v>1.62560852773421</v>
       </c>
-      <c r="O21" s="18" t="n">
+      <c r="O21" s="23" t="n">
         <v>1.28694963043918</v>
       </c>
-      <c r="P21" s="19" t="n">
+      <c r="P21" s="24" t="n">
         <v>-2.009063101438E-007</v>
       </c>
     </row>
@@ -3870,16 +4428,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>12</v>
@@ -3899,16 +4457,16 @@
       <c r="L22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M22" s="18" t="n">
+      <c r="M22" s="23" t="n">
         <v>6.99219741030611</v>
       </c>
-      <c r="N22" s="18" t="n">
+      <c r="N22" s="23" t="n">
         <v>13.7428565533787</v>
       </c>
-      <c r="O22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="19" t="n">
+      <c r="O22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24" t="n">
         <v>0.00337710220788101</v>
       </c>
     </row>
@@ -3918,16 +4476,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>12</v>
@@ -3947,16 +4505,16 @@
       <c r="L23" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M23" s="18" t="n">
+      <c r="M23" s="23" t="n">
         <v>2.78849159238904</v>
       </c>
-      <c r="N23" s="18" t="n">
+      <c r="N23" s="23" t="n">
         <v>7.54356779108686</v>
       </c>
-      <c r="O23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="19" t="n">
+      <c r="O23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="24" t="n">
         <v>0.00026906055825715</v>
       </c>
     </row>
@@ -3966,16 +4524,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>12</v>
@@ -3995,16 +4553,16 @@
       <c r="L24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M24" s="18" t="n">
+      <c r="M24" s="23" t="n">
         <v>0.717900745152544</v>
       </c>
-      <c r="N24" s="18" t="n">
+      <c r="N24" s="23" t="n">
         <v>3.63646927811634</v>
       </c>
-      <c r="O24" s="18" t="n">
+      <c r="O24" s="23" t="n">
         <v>0.0950544359872518</v>
       </c>
-      <c r="P24" s="19" t="n">
+      <c r="P24" s="24" t="n">
         <v>-0.000471012492275991</v>
       </c>
     </row>
@@ -4014,16 +4572,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>12</v>
@@ -4043,16 +4601,16 @@
       <c r="L25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="18" t="n">
+      <c r="M25" s="23" t="n">
         <v>0.654448171211672</v>
       </c>
-      <c r="N25" s="18" t="n">
+      <c r="N25" s="23" t="n">
         <v>1.97448260562947</v>
       </c>
-      <c r="O25" s="18" t="n">
+      <c r="O25" s="23" t="n">
         <v>0.284702551883331</v>
       </c>
-      <c r="P25" s="19" t="n">
+      <c r="P25" s="24" t="n">
         <v>0.000143001696818024</v>
       </c>
     </row>
@@ -4062,16 +4620,16 @@
         <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>12</v>
@@ -4091,16 +4649,16 @@
       <c r="L26" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M26" s="18" t="n">
+      <c r="M26" s="23" t="n">
         <v>1.75827273636371</v>
       </c>
-      <c r="N26" s="18" t="n">
+      <c r="N26" s="23" t="n">
         <v>5.77323983823695</v>
       </c>
-      <c r="O26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="19" t="n">
+      <c r="O26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24" t="n">
         <v>0.000102389930915603</v>
       </c>
     </row>
@@ -4110,16 +4668,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>12</v>
@@ -4139,10 +4697,10 @@
       <c r="L27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
@@ -4150,16 +4708,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>12</v>
@@ -4179,10 +4737,10 @@
       <c r="L28" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="22"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
@@ -4190,16 +4748,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>12</v>
@@ -4219,10 +4777,10 @@
       <c r="L29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
@@ -4230,16 +4788,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>12</v>
@@ -4259,10 +4817,10 @@
       <c r="L30" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="22"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -4270,16 +4828,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>12</v>
@@ -4299,10 +4857,10 @@
       <c r="L31" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
@@ -5957,7 +6515,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6009,16 +6567,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="23" t="n">
         <v>5.75384240329263</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="23" t="n">
         <v>12.8743688511342</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="23" t="n">
         <v>722.332554344859</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="24" t="n">
         <v>1.34799337039553</v>
       </c>
     </row>
@@ -6036,16 +6594,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="23" t="n">
         <v>0.637159937840428</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="23" t="n">
         <v>1.75841173461278</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="23" t="n">
         <v>56.613629111074</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="24" t="n">
         <v>0.701857458322819</v>
       </c>
     </row>
@@ -6063,16 +6621,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="23" t="n">
         <v>0.24501320545263</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="23" t="n">
         <v>1.51299438164206</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="23" t="n">
         <v>0.0659405394129786</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="24" t="n">
         <v>0.130993757970881</v>
       </c>
     </row>
@@ -6090,16 +6648,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="23" t="n">
         <v>21.7305541788523</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="23" t="n">
         <v>43.233621816111</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="23" t="n">
         <v>0.0187037226714759</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="24" t="n">
         <v>-0.000572671060287799</v>
       </c>
     </row>
@@ -6117,16 +6675,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="23" t="n">
         <v>3.76611787790736</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="23" t="n">
         <v>83.0274429225168</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="23" t="n">
         <v>430.024253254132</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="24" t="n">
         <v>1.26416173555729</v>
       </c>
     </row>
@@ -6144,16 +6702,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="23" t="n">
         <v>0.262910819249296</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="23" t="n">
         <v>96.2723966291592</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="23" t="n">
         <v>24.8803624319633</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="24" t="n">
         <v>0.499041982536671</v>
       </c>
     </row>
@@ -6171,16 +6729,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="23" t="n">
         <v>0.88740861462869</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="23" t="n">
         <v>7.51588981517334</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="23" t="n">
         <v>2.05726587939357</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="24" t="n">
         <v>4.44089209850063E-016</v>
       </c>
     </row>
@@ -6198,16 +6756,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="23" t="n">
         <v>0.691476592538225</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="23" t="n">
         <v>6.61791342758306</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="23" t="n">
         <v>4.09639629069702</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="24" t="n">
         <v>0.000304734750786961</v>
       </c>
     </row>
@@ -6225,16 +6783,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="23" t="n">
         <v>5.77255749578023</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="23" t="n">
         <v>13.108882185639</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="23" t="n">
         <v>722.332553071076</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="24" t="n">
         <v>1.34799337016007</v>
       </c>
     </row>
@@ -6252,16 +6810,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="23" t="n">
         <v>5.72289672594113</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="23" t="n">
         <v>12.9405091865082</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="23" t="n">
         <v>722.332554336582</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="24" t="n">
         <v>1.347993370394</v>
       </c>
     </row>
@@ -6279,16 +6837,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="23" t="n">
         <v>5.72736225142278</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="23" t="n">
         <v>12.9562427236867</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="23" t="n">
         <v>722.332554231642</v>
       </c>
-      <c r="I14" s="19" t="n">
+      <c r="I14" s="24" t="n">
         <v>1.3479933703746</v>
       </c>
     </row>
@@ -6306,16 +6864,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="23" t="n">
         <v>1.6998034857309</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="23" t="n">
         <v>3.12680438082688</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="23" t="n">
         <v>14.2983347680544</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="24" t="n">
         <v>0.406370768623511</v>
       </c>
     </row>
@@ -6333,16 +6891,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="23" t="n">
         <v>2.83218426840517</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="23" t="n">
         <v>4.59519442358675</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="23" t="n">
         <v>38.6816406220435</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="24" t="n">
         <v>0.598655024274848</v>
       </c>
     </row>
@@ -6360,16 +6918,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="23" t="n">
         <v>63.4580511786446</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="23" t="n">
         <v>87.7308720260948</v>
       </c>
-      <c r="H17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19" t="n">
+      <c r="H17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24" t="n">
         <v>0.0525931236044914</v>
       </c>
     </row>
@@ -6387,16 +6945,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="23" t="n">
         <v>0.252646880629443</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="23" t="n">
         <v>1.50974285923043</v>
       </c>
-      <c r="H18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19" t="n">
+      <c r="H18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24" t="n">
         <v>0.128756559768998</v>
       </c>
     </row>
@@ -6414,16 +6972,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="23" t="n">
         <v>0.32114823505467</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="23" t="n">
         <v>57.0106831741129</v>
       </c>
-      <c r="H19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19" t="n">
+      <c r="H19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24" t="n">
         <v>0.118556172732574</v>
       </c>
     </row>
@@ -6441,16 +6999,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="23" t="n">
         <v>16.8339925275767</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="23" t="n">
         <v>32.6387772509742</v>
       </c>
-      <c r="H20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="n">
+      <c r="H20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24" t="n">
         <v>8.61071880238207E-005</v>
       </c>
     </row>
@@ -6468,16 +7026,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="23" t="n">
         <v>0.698161871075377</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="23" t="n">
         <v>3.68818069558336</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="23" t="n">
         <v>1.43810868160659</v>
       </c>
-      <c r="I21" s="19" t="n">
+      <c r="I21" s="24" t="n">
         <v>0.000263724446790681</v>
       </c>
     </row>
@@ -6495,16 +7053,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="23" t="n">
         <v>6.99219741030611</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="23" t="n">
         <v>13.7428565533787</v>
       </c>
-      <c r="H22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19" t="n">
+      <c r="H22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24" t="n">
         <v>0.00337710220788101</v>
       </c>
     </row>
@@ -6522,16 +7080,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="23" t="n">
         <v>2.78849159238904</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="23" t="n">
         <v>7.54356779108686</v>
       </c>
-      <c r="H23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="n">
+      <c r="H23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24" t="n">
         <v>0.00026906055825715</v>
       </c>
     </row>
@@ -6549,16 +7107,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="23" t="n">
         <v>0.717900745152544</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="23" t="n">
         <v>3.63646927811634</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="23" t="n">
         <v>0.0950544359872518</v>
       </c>
-      <c r="I24" s="19" t="n">
+      <c r="I24" s="24" t="n">
         <v>-0.000471012492275991</v>
       </c>
     </row>
@@ -6576,16 +7134,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="23" t="n">
         <v>0.654448171211672</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="23" t="n">
         <v>1.97448260562947</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="23" t="n">
         <v>0.284702551883331</v>
       </c>
-      <c r="I25" s="19" t="n">
+      <c r="I25" s="24" t="n">
         <v>0.000143001696818024</v>
       </c>
     </row>
@@ -6603,16 +7161,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="18" t="n">
+      <c r="F26" s="23" t="n">
         <v>1.75827273636371</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="G26" s="23" t="n">
         <v>5.77323983823695</v>
       </c>
-      <c r="H26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19" t="n">
+      <c r="H26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24" t="n">
         <v>0.000102389930915603</v>
       </c>
     </row>
@@ -6630,16 +7188,16 @@
       <c r="E27" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F27" s="18" t="n">
+      <c r="F27" s="23" t="n">
         <v>0.678367014364614</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="G27" s="23" t="n">
         <v>4.05614005447975</v>
       </c>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="23" t="n">
         <v>3.70836911177386</v>
       </c>
-      <c r="I27" s="19" t="n">
+      <c r="I27" s="24" t="n">
         <v>0.000291268261205069</v>
       </c>
     </row>
@@ -6657,16 +7215,16 @@
       <c r="E28" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F28" s="18" t="n">
+      <c r="F28" s="23" t="n">
         <v>0.659642850839173</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="23" t="n">
         <v>3.91351357277791</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="23" t="n">
         <v>4.02023385366139</v>
       </c>
-      <c r="I28" s="19" t="n">
+      <c r="I28" s="24" t="n">
         <v>0.000662087463754846</v>
       </c>
     </row>
@@ -6684,16 +7242,16 @@
       <c r="E29" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="18" t="n">
+      <c r="F29" s="23" t="n">
         <v>0.671817162976417</v>
       </c>
-      <c r="G29" s="18" t="n">
+      <c r="G29" s="23" t="n">
         <v>3.78930023437778</v>
       </c>
-      <c r="H29" s="18" t="n">
+      <c r="H29" s="23" t="n">
         <v>4.1273231664773</v>
       </c>
-      <c r="I29" s="19" t="n">
+      <c r="I29" s="24" t="n">
         <v>0.00098940847193707</v>
       </c>
     </row>
@@ -6711,16 +7269,16 @@
       <c r="E30" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="23" t="n">
         <v>0.652604616133681</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="G30" s="23" t="n">
         <v>3.78170391523133</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="23" t="n">
         <v>4.00848917821761</v>
       </c>
-      <c r="I30" s="19" t="n">
+      <c r="I30" s="24" t="n">
         <v>-9.85541209401752E-005</v>
       </c>
     </row>
@@ -6738,16 +7296,16 @@
       <c r="E31" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F31" s="18" t="n">
+      <c r="F31" s="23" t="n">
         <v>0.657370287360328</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="G31" s="23" t="n">
         <v>3.7759718137331</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="23" t="n">
         <v>4.08011671247313</v>
       </c>
-      <c r="I31" s="19" t="n">
+      <c r="I31" s="24" t="n">
         <v>-2.44164710385686E-005</v>
       </c>
     </row>
@@ -6787,7 +7345,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6839,16 +7397,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="29" t="n">
         <v>50.9748821639251</v>
       </c>
-      <c r="G4" s="24" t="n">
+      <c r="G4" s="29" t="n">
         <v>70.0426808503087</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="29" t="n">
         <v>1.98416217121795</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="24" t="n">
         <v>-0.387465593978803</v>
       </c>
     </row>
@@ -6866,16 +7424,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="29" t="n">
         <v>9.93610602223798</v>
       </c>
-      <c r="G5" s="24" t="n">
+      <c r="G5" s="29" t="n">
         <v>31.8639244494765</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="29" t="n">
         <v>2.37007770382078</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="24" t="n">
         <v>-0.202174164372096</v>
       </c>
     </row>
@@ -6893,16 +7451,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="29" t="n">
         <v>2.20110239173998</v>
       </c>
-      <c r="G6" s="24" t="n">
+      <c r="G6" s="29" t="n">
         <v>7.66209588439602</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="29" t="n">
         <v>3.89628967006523</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="24" t="n">
         <v>0.106480249698414</v>
       </c>
     </row>
@@ -6920,16 +7478,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="29" t="n">
         <v>9.06706736484402</v>
       </c>
-      <c r="G7" s="24" t="n">
+      <c r="G7" s="29" t="n">
         <v>99.6382630052192</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="29" t="n">
         <v>24.593850321264</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="24" t="n">
         <v>-24.5760554327356</v>
       </c>
     </row>
@@ -6947,16 +7505,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="29" t="n">
         <v>55.8462452117212</v>
       </c>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="29" t="n">
         <v>75.453630602513</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="29" t="n">
         <v>1.95286601864273</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="24" t="n">
         <v>-9.98652160146816</v>
       </c>
     </row>
@@ -6974,16 +7532,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="29" t="n">
         <v>24.7258090057739</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="29" t="n">
         <v>99.1697388164892</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="29" t="n">
         <v>70.9353834024444</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="24" t="n">
         <v>0.0102298026278973</v>
       </c>
     </row>
@@ -7001,16 +7559,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="29" t="n">
         <v>2.42701034691213</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="29" t="n">
         <v>99.8961898201178</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="29" t="n">
         <v>179.575763722594</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="24" t="n">
         <v>-0.493299500590538</v>
       </c>
     </row>
@@ -7028,16 +7586,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="29" t="n">
         <v>3.62110255733463</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="29" t="n">
         <v>99.8542847875367</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="29" t="n">
         <v>86.1374848876467</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="24" t="n">
         <v>-30.5340405902651</v>
       </c>
     </row>
@@ -7055,16 +7613,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="29" t="n">
         <v>52.3537483807013</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="29" t="n">
         <v>72.4709409589155</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="29" t="n">
         <v>1.34646901530895</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="24" t="n">
         <v>-0.509301593215696</v>
       </c>
     </row>
@@ -7082,16 +7640,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="29" t="n">
         <v>50.9895766282572</v>
       </c>
-      <c r="G13" s="24" t="n">
+      <c r="G13" s="29" t="n">
         <v>70.0689086965915</v>
       </c>
-      <c r="H13" s="24" t="n">
+      <c r="H13" s="29" t="n">
         <v>1.97631150701798</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="24" t="n">
         <v>-0.388893870360668</v>
       </c>
     </row>
@@ -7109,16 +7667,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="29" t="n">
         <v>51.1159815899472</v>
       </c>
-      <c r="G14" s="24" t="n">
+      <c r="G14" s="29" t="n">
         <v>70.2846330458479</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="29" t="n">
         <v>1.9147985226035</v>
       </c>
-      <c r="I14" s="19" t="n">
+      <c r="I14" s="24" t="n">
         <v>-0.401663128774153</v>
       </c>
     </row>
@@ -7136,16 +7694,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="29" t="n">
         <v>61.6493487331089</v>
       </c>
-      <c r="G15" s="24" t="n">
+      <c r="G15" s="29" t="n">
         <v>88.2035302834421</v>
       </c>
-      <c r="H15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="n">
+      <c r="H15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24" t="n">
         <v>0.0779377590162653</v>
       </c>
     </row>
@@ -7163,16 +7721,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="29" t="n">
         <v>76.9226175499812</v>
       </c>
-      <c r="G16" s="24" t="n">
+      <c r="G16" s="29" t="n">
         <v>96.973880508853</v>
       </c>
-      <c r="H16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19" t="n">
+      <c r="H16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24" t="n">
         <v>18.3950915684304</v>
       </c>
     </row>
@@ -7190,16 +7748,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="24" t="n">
+      <c r="F17" s="29" t="n">
         <v>2.19827057202283</v>
       </c>
-      <c r="G17" s="24" t="n">
+      <c r="G17" s="29" t="n">
         <v>11.5867587933689</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="H17" s="29" t="n">
         <v>4.92901344325589</v>
       </c>
-      <c r="I17" s="19" t="n">
+      <c r="I17" s="24" t="n">
         <v>-0.124921208540499</v>
       </c>
     </row>
@@ -7217,16 +7775,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="24" t="n">
+      <c r="F18" s="29" t="n">
         <v>2.20145201966747</v>
       </c>
-      <c r="G18" s="24" t="n">
+      <c r="G18" s="29" t="n">
         <v>7.72845548361376</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="H18" s="29" t="n">
         <v>3.92276495512183</v>
       </c>
-      <c r="I18" s="19" t="n">
+      <c r="I18" s="24" t="n">
         <v>0.100002466228254</v>
       </c>
     </row>
@@ -7244,16 +7802,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="29" t="n">
         <v>2.20350800644824</v>
       </c>
-      <c r="G19" s="24" t="n">
+      <c r="G19" s="29" t="n">
         <v>7.64788637658728</v>
       </c>
-      <c r="H19" s="24" t="n">
+      <c r="H19" s="29" t="n">
         <v>3.8433814144283</v>
       </c>
-      <c r="I19" s="19" t="n">
+      <c r="I19" s="24" t="n">
         <v>0.0488061523669714</v>
       </c>
     </row>
@@ -7271,16 +7829,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="29" t="n">
         <v>2.14321247012368</v>
       </c>
-      <c r="G20" s="24" t="n">
+      <c r="G20" s="29" t="n">
         <v>36.0785979762428</v>
       </c>
-      <c r="H20" s="24" t="n">
+      <c r="H20" s="29" t="n">
         <v>18.1212284713441</v>
       </c>
-      <c r="I20" s="19" t="n">
+      <c r="I20" s="24" t="n">
         <v>0.331731513115152</v>
       </c>
     </row>
@@ -7298,16 +7856,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="24" t="n">
+      <c r="F21" s="29" t="n">
         <v>2.15780868353975</v>
       </c>
-      <c r="G21" s="24" t="n">
+      <c r="G21" s="29" t="n">
         <v>99.7234735796649</v>
       </c>
-      <c r="H21" s="24" t="n">
+      <c r="H21" s="29" t="n">
         <v>74.6546309444317</v>
       </c>
-      <c r="I21" s="19" t="n">
+      <c r="I21" s="24" t="n">
         <v>0.0139928833825209</v>
       </c>
     </row>
@@ -7325,16 +7883,16 @@
       <c r="E22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="29" t="n">
         <v>2.26182556493233</v>
       </c>
-      <c r="G22" s="24" t="n">
+      <c r="G22" s="29" t="n">
         <v>5.95695925499343</v>
       </c>
-      <c r="H22" s="24" t="n">
+      <c r="H22" s="29" t="n">
         <v>3.44122229879027</v>
       </c>
-      <c r="I22" s="19" t="n">
+      <c r="I22" s="24" t="n">
         <v>-0.0136389352420991</v>
       </c>
     </row>
@@ -7352,16 +7910,16 @@
       <c r="E23" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="24" t="n">
+      <c r="F23" s="29" t="n">
         <v>2.15717115476597</v>
       </c>
-      <c r="G23" s="24" t="n">
+      <c r="G23" s="29" t="n">
         <v>4.4714486305665</v>
       </c>
-      <c r="H23" s="24" t="n">
+      <c r="H23" s="29" t="n">
         <v>2.64202139135141</v>
       </c>
-      <c r="I23" s="19" t="n">
+      <c r="I23" s="24" t="n">
         <v>0.0365331958331936</v>
       </c>
     </row>
@@ -7379,16 +7937,16 @@
       <c r="E24" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="29" t="n">
         <v>2.15656934554616</v>
       </c>
-      <c r="G24" s="24" t="n">
+      <c r="G24" s="29" t="n">
         <v>4.05839832883583</v>
       </c>
-      <c r="H24" s="24" t="n">
+      <c r="H24" s="29" t="n">
         <v>2.08031931485542</v>
       </c>
-      <c r="I24" s="19" t="n">
+      <c r="I24" s="24" t="n">
         <v>0.0405649028655191</v>
       </c>
     </row>
@@ -7406,16 +7964,16 @@
       <c r="E25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="29" t="n">
         <v>2.15986106941225</v>
       </c>
-      <c r="G25" s="24" t="n">
+      <c r="G25" s="29" t="n">
         <v>3.75204254641341</v>
       </c>
-      <c r="H25" s="24" t="n">
+      <c r="H25" s="29" t="n">
         <v>1.82747002688339</v>
       </c>
-      <c r="I25" s="19" t="n">
+      <c r="I25" s="24" t="n">
         <v>-0.0289639103630961</v>
       </c>
     </row>
@@ -7433,16 +7991,16 @@
       <c r="E26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="F26" s="24" t="n">
+      <c r="F26" s="29" t="n">
         <v>2.38210307674101</v>
       </c>
-      <c r="G26" s="24" t="n">
+      <c r="G26" s="29" t="n">
         <v>6.60335643244453</v>
       </c>
-      <c r="H26" s="24" t="n">
+      <c r="H26" s="29" t="n">
         <v>2.55819505254982</v>
       </c>
-      <c r="I26" s="19" t="n">
+      <c r="I26" s="24" t="n">
         <v>-0.00652973547403946</v>
       </c>
     </row>
@@ -7460,16 +8018,16 @@
       <c r="E27" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="29" t="n">
         <v>2.65820342434269</v>
       </c>
-      <c r="G27" s="24" t="n">
+      <c r="G27" s="29" t="n">
         <v>5.20762719454842</v>
       </c>
-      <c r="H27" s="24" t="n">
+      <c r="H27" s="29" t="n">
         <v>1.77156691176326</v>
       </c>
-      <c r="I27" s="19" t="n">
+      <c r="I27" s="24" t="n">
         <v>-0.00697239449949905</v>
       </c>
     </row>
@@ -7487,16 +8045,16 @@
       <c r="E28" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="29" t="n">
         <v>3.40845074347953</v>
       </c>
-      <c r="G28" s="24" t="n">
+      <c r="G28" s="29" t="n">
         <v>6.74034792542962</v>
       </c>
-      <c r="H28" s="24" t="n">
+      <c r="H28" s="29" t="n">
         <v>0.138691077822983</v>
       </c>
-      <c r="I28" s="19" t="n">
+      <c r="I28" s="24" t="n">
         <v>-0.00796818530952947</v>
       </c>
     </row>
@@ -7514,16 +8072,16 @@
       <c r="E29" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="29" t="n">
         <v>2.15827495078803</v>
       </c>
-      <c r="G29" s="24" t="n">
+      <c r="G29" s="29" t="n">
         <v>3.75427727077001</v>
       </c>
-      <c r="H29" s="24" t="n">
+      <c r="H29" s="29" t="n">
         <v>1.17765134656718</v>
       </c>
-      <c r="I29" s="19" t="n">
+      <c r="I29" s="24" t="n">
         <v>0.00423382867296596</v>
       </c>
     </row>
@@ -7535,10 +8093,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -7548,10 +8106,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -7589,7 +8147,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7641,16 +8199,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="23" t="n">
         <v>19.2621520749175</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="23" t="n">
         <v>33.3785010595985</v>
       </c>
-      <c r="H4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="n">
+      <c r="H4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24" t="n">
         <v>0.142740295602177</v>
       </c>
     </row>
@@ -7668,16 +8226,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="23" t="n">
         <v>7.80874633322939</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="23" t="n">
         <v>14.8172547191419</v>
       </c>
-      <c r="H5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="n">
+      <c r="H5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24" t="n">
         <v>0.0922797349843051</v>
       </c>
     </row>
@@ -7695,16 +8253,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="23" t="n">
         <v>0.284100362366068</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="23" t="n">
         <v>1.88908079307758</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="23" t="n">
         <v>0.0306714621541637</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="24" t="n">
         <v>0.0191115005281781</v>
       </c>
     </row>
@@ -7722,16 +8280,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="23" t="n">
         <v>13.3560053878281</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="23" t="n">
         <v>20.5367493340953</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="23" t="n">
         <v>1.39141616289655</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="24" t="n">
         <v>-2.27530100260775E-007</v>
       </c>
     </row>
@@ -7749,16 +8307,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="23" t="n">
         <v>25.0753478684354</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="23" t="n">
         <v>74.9554719929574</v>
       </c>
-      <c r="H8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19" t="n">
+      <c r="H8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24" t="n">
         <v>0.132957842101011</v>
       </c>
     </row>
@@ -7776,16 +8334,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="23" t="n">
         <v>59.0396925942689</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="23" t="n">
         <v>91.447128732485</v>
       </c>
-      <c r="H9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19" t="n">
+      <c r="H9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24" t="n">
         <v>0.0786703129042171</v>
       </c>
     </row>
@@ -7803,16 +8361,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="23" t="n">
         <v>1.9352487791646</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="23" t="n">
         <v>21.2504697094425</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="23" t="n">
         <v>46.1009154680728</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="24" t="n">
         <v>1.6292066917778E-008</v>
       </c>
     </row>
@@ -7830,16 +8388,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="23" t="n">
         <v>0.344410568241937</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="23" t="n">
         <v>24.0794994815172</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="23" t="n">
         <v>79.571248132147</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="24" t="n">
         <v>-0.000524534711026647</v>
       </c>
     </row>
@@ -7857,16 +8415,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="23" t="n">
         <v>19.466826078489</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="23" t="n">
         <v>33.7440903526329</v>
       </c>
-      <c r="H12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19" t="n">
+      <c r="H12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24" t="n">
         <v>0.142740327471353</v>
       </c>
     </row>
@@ -7884,16 +8442,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="23" t="n">
         <v>19.2733996071382</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="23" t="n">
         <v>33.4089488234601</v>
       </c>
-      <c r="H13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19" t="n">
+      <c r="H13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24" t="n">
         <v>0.142740295900879</v>
       </c>
     </row>
@@ -7911,16 +8469,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="23" t="n">
         <v>19.2912167020926</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="23" t="n">
         <v>33.4400941365629</v>
       </c>
-      <c r="H14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19" t="n">
+      <c r="H14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24" t="n">
         <v>0.142740298606785</v>
       </c>
     </row>
@@ -7938,16 +8496,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="23" t="n">
         <v>21.3407209134512</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="23" t="n">
         <v>36.9306631232461</v>
       </c>
-      <c r="H15" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="n">
+      <c r="H15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24" t="n">
         <v>0.142740871421425</v>
       </c>
     </row>
@@ -7965,16 +8523,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="23" t="n">
         <v>2.92795800816525</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="23" t="n">
         <v>5.93211351019386</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="23" t="n">
         <v>0.000873958914215933</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="24" t="n">
         <v>-0.648501136394992</v>
       </c>
     </row>
@@ -7992,16 +8550,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="23" t="n">
         <v>0.441463999974583</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="23" t="n">
         <v>44.7355511291702</v>
       </c>
-      <c r="H17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19" t="n">
+      <c r="H17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24" t="n">
         <v>0.00775032922005522</v>
       </c>
     </row>
@@ -8019,16 +8577,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="23" t="n">
         <v>0.284450828132284</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="23" t="n">
         <v>1.88807794057824</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="23" t="n">
         <v>0.0914197901178637</v>
       </c>
-      <c r="I18" s="19" t="n">
+      <c r="I18" s="24" t="n">
         <v>0.0191136878005562</v>
       </c>
     </row>
@@ -8046,16 +8604,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="23" t="n">
         <v>0.29399299052843</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="23" t="n">
         <v>1.99283668992357</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="23" t="n">
         <v>0.0903554425490949</v>
       </c>
-      <c r="I19" s="19" t="n">
+      <c r="I19" s="24" t="n">
         <v>0.0176097089448594</v>
       </c>
     </row>
@@ -8073,16 +8631,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="23" t="n">
         <v>0.577602220106126</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="23" t="n">
         <v>14.182257317903</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="23" t="n">
         <v>0.00334230367500243</v>
       </c>
-      <c r="I20" s="19" t="n">
+      <c r="I20" s="24" t="n">
         <v>4.3099586279377E-005</v>
       </c>
     </row>
@@ -8100,16 +8658,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="23" t="n">
         <v>0.254554373944176</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="23" t="n">
         <v>2.34974352422668</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="23" t="n">
         <v>2.09774056609424</v>
       </c>
-      <c r="I21" s="19" t="n">
+      <c r="I21" s="24" t="n">
         <v>-3.33997446977374E-007</v>
       </c>
     </row>
@@ -8127,16 +8685,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="23" t="n">
         <v>0.354176941859994</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="23" t="n">
         <v>2.47313813931296</v>
       </c>
-      <c r="H22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19" t="n">
+      <c r="H22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24" t="n">
         <v>0.0065586260804118</v>
       </c>
     </row>
@@ -8154,16 +8712,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="23" t="n">
         <v>0.346197331469937</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="23" t="n">
         <v>2.22716528709415</v>
       </c>
-      <c r="H23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="n">
+      <c r="H23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24" t="n">
         <v>0.00137797367135789</v>
       </c>
     </row>
@@ -8181,16 +8739,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="23" t="n">
         <v>0.308497395521393</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="23" t="n">
         <v>1.88016486032182</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="23" t="n">
         <v>0.121987098261145</v>
       </c>
-      <c r="I24" s="19" t="n">
+      <c r="I24" s="24" t="n">
         <v>-0.000231224911036609</v>
       </c>
     </row>
@@ -8208,16 +8766,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="23" t="n">
         <v>0.278484902139614</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="23" t="n">
         <v>1.65093415130578</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="23" t="n">
         <v>1.04575839166203</v>
       </c>
-      <c r="I25" s="19" t="n">
+      <c r="I25" s="24" t="n">
         <v>-0.000415599896828822</v>
       </c>
     </row>
@@ -8235,16 +8793,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="18" t="n">
+      <c r="F26" s="23" t="n">
         <v>0.323318294258886</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="G26" s="23" t="n">
         <v>2.03827762430259</v>
       </c>
-      <c r="H26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19" t="n">
+      <c r="H26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24" t="n">
         <v>0.000295198904276206</v>
       </c>
     </row>
@@ -8256,10 +8814,10 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
@@ -8269,10 +8827,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
@@ -8282,10 +8840,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
@@ -8295,10 +8853,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -8308,10 +8866,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -8349,7 +8907,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8401,16 +8959,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="23" t="n">
         <v>1.8670458099257</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="23" t="n">
         <v>2.92312008245632</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="23" t="n">
         <v>0.0217278440997948</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="24" t="n">
         <v>-0.0626274652631005</v>
       </c>
     </row>
@@ -8428,16 +8986,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="F5" s="23" t="n">
         <v>1.95584438372091</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="G5" s="23" t="n">
         <v>3.09694931275906</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="23" t="n">
         <v>0.00642843342428812</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="24" t="n">
         <v>-0.0623652624436888</v>
       </c>
     </row>
@@ -8455,16 +9013,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="23" t="n">
         <v>0.932217797733494</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="23" t="n">
         <v>2.33499010642418</v>
       </c>
-      <c r="H6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19" t="n">
+      <c r="H6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24" t="n">
         <v>-0.0382739134788843</v>
       </c>
     </row>
@@ -8482,16 +9040,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="23" t="n">
         <v>1.40256287524312</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="23" t="n">
         <v>95.6755581169279</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="23" t="n">
         <v>3.38741614562237</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="24" t="n">
         <v>-0.011640029837007</v>
       </c>
     </row>
@@ -8509,16 +9067,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="23" t="n">
         <v>1.87347505270568</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="23" t="n">
         <v>2.88735487467525</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="23" t="n">
         <v>0.00464649549956064</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="24" t="n">
         <v>-0.0630452205804044</v>
       </c>
     </row>
@@ -8536,16 +9094,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="23" t="n">
         <v>1.86835707068821</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="23" t="n">
         <v>2.85273674606552</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="23" t="n">
         <v>0.0360032611518069</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="24" t="n">
         <v>-0.0624759529988845</v>
       </c>
     </row>
@@ -8563,16 +9121,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="23" t="n">
         <v>1.39671212143601</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="23" t="n">
         <v>12.4055227670891</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="23" t="n">
         <v>4.1066555684252</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="24" t="n">
         <v>-2.22044604925031E-016</v>
       </c>
     </row>
@@ -8590,16 +9148,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="23" t="n">
         <v>1.62668369223076</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="23" t="n">
         <v>61.5977071000913</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="23" t="n">
         <v>4.0729925384313</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="24" t="n">
         <v>-0.000156185745572079</v>
       </c>
     </row>
@@ -8617,16 +9175,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="23" t="n">
         <v>1.87939683670391</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="23" t="n">
         <v>2.91317210965989</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="23" t="n">
         <v>0.0488452410774665</v>
       </c>
-      <c r="I12" s="19" t="n">
+      <c r="I12" s="24" t="n">
         <v>-0.0622062613803285</v>
       </c>
     </row>
@@ -8644,16 +9202,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="23" t="n">
         <v>1.86557738830127</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="23" t="n">
         <v>2.91971093115486</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="23" t="n">
         <v>0.0233250351419745</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="24" t="n">
         <v>-0.0626031519415464</v>
       </c>
     </row>
@@ -8671,16 +9229,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="23" t="n">
         <v>1.85170288969079</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="23" t="n">
         <v>2.88766455116387</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="23" t="n">
         <v>0.0409225242637534</v>
       </c>
-      <c r="I14" s="19" t="n">
+      <c r="I14" s="24" t="n">
         <v>-0.0623330522521675</v>
       </c>
     </row>
@@ -8698,16 +9256,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="23" t="n">
         <v>1.40689373809794</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="23" t="n">
         <v>3.37760180409583</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="23" t="n">
         <v>0.012572892170426</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="24" t="n">
         <v>-0.0627631436610132</v>
       </c>
     </row>
@@ -8725,16 +9283,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="23" t="n">
         <v>1.74124577868753</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="23" t="n">
         <v>3.16188648381312</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="23" t="n">
         <v>25.5178357258306</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="24" t="n">
         <v>0.504125594763773</v>
       </c>
     </row>
@@ -8752,16 +9310,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="23" t="n">
         <v>0.77010620487711</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="23" t="n">
         <v>72.4192209182288</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="23" t="n">
         <v>1.29549102233391</v>
       </c>
-      <c r="I17" s="19" t="n">
+      <c r="I17" s="24" t="n">
         <v>-0.0188674054879086</v>
       </c>
     </row>
@@ -8779,16 +9337,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="23" t="n">
         <v>0.918131466268879</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="23" t="n">
         <v>2.3137677838738</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="23" t="n">
         <v>0.0226310118289774</v>
       </c>
-      <c r="I18" s="19" t="n">
+      <c r="I18" s="24" t="n">
         <v>-0.0380470462792886</v>
       </c>
     </row>
@@ -8806,16 +9364,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="23" t="n">
         <v>0.900525425327351</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="23" t="n">
         <v>2.25537329631811</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="23" t="n">
         <v>0.150938432674597</v>
       </c>
-      <c r="I19" s="19" t="n">
+      <c r="I19" s="24" t="n">
         <v>-0.0360444046758288</v>
       </c>
     </row>
@@ -8833,16 +9391,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="23" t="n">
         <v>0.669775614036524</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="23" t="n">
         <v>38.0664150786302</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="23" t="n">
         <v>2.75424984728212</v>
       </c>
-      <c r="I20" s="19" t="n">
+      <c r="I20" s="24" t="n">
         <v>0.000832573760308097</v>
       </c>
     </row>
@@ -8860,16 +9418,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="23" t="n">
         <v>0.681035359070858</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="23" t="n">
         <v>5.90691222591391</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="23" t="n">
         <v>3.66550065509421</v>
       </c>
-      <c r="I21" s="19" t="n">
+      <c r="I21" s="24" t="n">
         <v>0.000268690135639682</v>
       </c>
     </row>
@@ -8887,16 +9445,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="23" t="n">
         <v>0.869688028326164</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="23" t="n">
         <v>3.77702750396131</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="23" t="n">
         <v>0.637939472174565</v>
       </c>
-      <c r="I22" s="19" t="n">
+      <c r="I22" s="24" t="n">
         <v>-0.0333585174019686</v>
       </c>
     </row>
@@ -8914,16 +9472,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="23" t="n">
         <v>0.826897045004426</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="23" t="n">
         <v>4.4129585182635</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="23" t="n">
         <v>1.33025025299907</v>
       </c>
-      <c r="I23" s="19" t="n">
+      <c r="I23" s="24" t="n">
         <v>-0.0275888693060224</v>
       </c>
     </row>
@@ -8941,16 +9499,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="23" t="n">
         <v>0.780116968277711</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="23" t="n">
         <v>4.59063622113463</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="23" t="n">
         <v>2.00500219517992</v>
       </c>
-      <c r="I24" s="19" t="n">
+      <c r="I24" s="24" t="n">
         <v>-0.0209897310515128</v>
       </c>
     </row>
@@ -8968,16 +9526,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="23" t="n">
         <v>0.746802442964768</v>
       </c>
-      <c r="G25" s="18" t="n">
+      <c r="G25" s="23" t="n">
         <v>4.61869648656106</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="23" t="n">
         <v>2.50631489647808</v>
       </c>
-      <c r="I25" s="19" t="n">
+      <c r="I25" s="24" t="n">
         <v>-0.0159029109324005</v>
       </c>
     </row>
@@ -8995,16 +9553,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="18" t="n">
+      <c r="F26" s="23" t="n">
         <v>0.802014989180577</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="G26" s="23" t="n">
         <v>4.55892877228734</v>
       </c>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="23" t="n">
         <v>1.68805718750391</v>
       </c>
-      <c r="I26" s="19" t="n">
+      <c r="I26" s="24" t="n">
         <v>-0.0240868778234611</v>
       </c>
     </row>
@@ -9022,16 +9580,16 @@
       <c r="E27" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F27" s="18" t="n">
+      <c r="F27" s="23" t="n">
         <v>0.662584862555042</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="G27" s="23" t="n">
         <v>4.41334277557914</v>
       </c>
-      <c r="H27" s="18" t="n">
+      <c r="H27" s="23" t="n">
         <v>3.89237523163908</v>
       </c>
-      <c r="I27" s="19" t="n">
+      <c r="I27" s="24" t="n">
         <v>-0.00137586935563938</v>
       </c>
     </row>
@@ -9049,16 +9607,16 @@
       <c r="E28" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F28" s="18" t="n">
+      <c r="F28" s="23" t="n">
         <v>0.654924314228345</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="23" t="n">
         <v>4.06336799182643</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="23" t="n">
         <v>4.08787026894879</v>
       </c>
-      <c r="I28" s="19" t="n">
+      <c r="I28" s="24" t="n">
         <v>-7.15460870015505E-006</v>
       </c>
     </row>
@@ -9076,16 +9634,16 @@
       <c r="E29" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="18" t="n">
+      <c r="F29" s="23" t="n">
         <v>0.654881610080331</v>
       </c>
-      <c r="G29" s="18" t="n">
+      <c r="G29" s="23" t="n">
         <v>3.92304191973706</v>
       </c>
-      <c r="H29" s="18" t="n">
+      <c r="H29" s="23" t="n">
         <v>4.10619083618835</v>
       </c>
-      <c r="I29" s="19" t="n">
+      <c r="I29" s="24" t="n">
         <v>-6.95456281452067E-008</v>
       </c>
     </row>
@@ -9103,16 +9661,16 @@
       <c r="E30" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="23" t="n">
         <v>0.654881638825</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="G30" s="23" t="n">
         <v>3.87032540011501</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="23" t="n">
         <v>4.1308611079462</v>
       </c>
-      <c r="I30" s="19" t="n">
+      <c r="I30" s="24" t="n">
         <v>-5.07613038269739E-008</v>
       </c>
     </row>
@@ -9130,16 +9688,16 @@
       <c r="E31" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F31" s="18" t="n">
+      <c r="F31" s="23" t="n">
         <v>0.654879582007219</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="G31" s="23" t="n">
         <v>3.89171323852913</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="23" t="n">
         <v>4.12146589712699</v>
       </c>
-      <c r="I31" s="19" t="n">
+      <c r="I31" s="24" t="n">
         <v>1.03693490682844E-007</v>
       </c>
     </row>

--- a/Data/Experimental_Responses_28FEB.xlsx
+++ b/Data/Experimental_Responses_28FEB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="41">
   <si>
     <t>With Linear Inversion</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>0-45</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>1.25-1.25</t>
@@ -799,8 +802,8 @@
   </sheetPr>
   <dimension ref="B2:AX70"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3480,8 +3483,8 @@
   </sheetPr>
   <dimension ref="B2:Q65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3570,7 +3573,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>26</v>
@@ -3618,7 +3621,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>26</v>
@@ -3666,7 +3669,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>26</v>
@@ -3714,7 +3717,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>26</v>
@@ -3762,7 +3765,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>26</v>
@@ -3810,7 +3813,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>26</v>
@@ -3852,13 +3855,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>26</v>
@@ -3900,13 +3903,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>26</v>
@@ -3948,13 +3951,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>26</v>
@@ -4002,7 +4005,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>26</v>
@@ -4050,7 +4053,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>26</v>
@@ -4092,13 +4095,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>26</v>
@@ -4140,13 +4143,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>26</v>
@@ -4194,7 +4197,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>26</v>
@@ -4242,7 +4245,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>29</v>
@@ -4290,7 +4293,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>29</v>
@@ -4332,13 +4335,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>29</v>
@@ -4386,7 +4389,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>29</v>
@@ -4434,7 +4437,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -4482,7 +4485,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>29</v>
@@ -4530,7 +4533,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>26</v>
@@ -4578,7 +4581,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>26</v>
@@ -4626,7 +4629,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>26</v>
@@ -4674,7 +4677,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>26</v>
@@ -4708,13 +4711,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>26</v>
@@ -4754,7 +4757,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>29</v>
@@ -4794,7 +4797,7 @@
         <v>33</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>29</v>
@@ -4828,13 +4831,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>29</v>
@@ -6515,7 +6518,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7345,7 +7348,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8147,7 +8150,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8907,7 +8910,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>

--- a/Data/Experimental_Responses_28FEB.xlsx
+++ b/Data/Experimental_Responses_28FEB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="41">
   <si>
     <t>With Linear Inversion</t>
   </si>
@@ -153,10 +153,10 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00E+00"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -233,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -318,6 +318,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -344,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,15 +458,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,15 +490,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3481,10 +3510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:Q65536"/>
+  <dimension ref="B2:AS65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3549,16 +3578,16 @@
       <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3596,17 +3625,17 @@
       <c r="L4" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M4" s="23" t="n">
-        <v>33.1769292026525</v>
-      </c>
-      <c r="N4" s="23" t="n">
-        <v>56.7263674829983</v>
-      </c>
-      <c r="O4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="n">
-        <v>0.192587853849019</v>
+      <c r="M4" s="18" t="n">
+        <v>1.16350727253893</v>
+      </c>
+      <c r="N4" s="18" t="n">
+        <v>49.1399849628746</v>
+      </c>
+      <c r="O4" s="18" t="n">
+        <v>81.2735970835033</v>
+      </c>
+      <c r="P4" s="18" t="n">
+        <v>-1.51401372583589</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +3646,7 @@
       <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -3644,17 +3673,17 @@
       <c r="L5" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M5" s="23" t="n">
-        <v>9.07474631714217</v>
-      </c>
-      <c r="N5" s="23" t="n">
-        <v>16.6663270840931</v>
-      </c>
-      <c r="O5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24" t="n">
-        <v>0.111656127273502</v>
+      <c r="M5" s="18" t="n">
+        <v>1.07793569302513</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>49.9054556350647</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>-0.0755233453699304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,17 +3721,17 @@
       <c r="L6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M6" s="23" t="n">
-        <v>0.283121853273233</v>
-      </c>
-      <c r="N6" s="23" t="n">
-        <v>1.871175047152</v>
-      </c>
-      <c r="O6" s="23" t="n">
-        <v>0.103429416102596</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>0.0240806540912453</v>
+      <c r="M6" s="18" t="n">
+        <v>1.2136973004393</v>
+      </c>
+      <c r="N6" s="18" t="n">
+        <v>18.2070602504113</v>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>78.1874566534008</v>
+      </c>
+      <c r="P6" s="18" t="n">
+        <v>-1.09493195709977</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,7 +3742,7 @@
       <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -3740,17 +3769,17 @@
       <c r="L7" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M7" s="23" t="n">
-        <v>14.8920843333986</v>
-      </c>
-      <c r="N7" s="23" t="n">
-        <v>23.9628849484037</v>
-      </c>
-      <c r="O7" s="23" t="n">
-        <v>0.901217375686492</v>
-      </c>
-      <c r="P7" s="24" t="n">
-        <v>-2.8785102695883E-007</v>
+      <c r="M7" s="18" t="n">
+        <v>1.29463549887924</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>33.6836732323602</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>-2.05503870412887</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,17 +3817,17 @@
       <c r="L8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="23" t="n">
-        <v>58.465054900757</v>
-      </c>
-      <c r="N8" s="23" t="n">
-        <v>91.6204277579062</v>
-      </c>
-      <c r="O8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24" t="n">
-        <v>0.173001511680047</v>
+      <c r="M8" s="18" t="n">
+        <v>8.17269290624526</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>6.79350124053939</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>0.20094736977493</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3838,7 @@
       <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -3836,17 +3865,17 @@
       <c r="L9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="23" t="n">
-        <v>66.6754180159391</v>
-      </c>
-      <c r="N9" s="23" t="n">
-        <v>93.9226989278462</v>
-      </c>
-      <c r="O9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24" t="n">
-        <v>0.0928451093008897</v>
+      <c r="M9" s="18" t="n">
+        <v>6.01385386811937</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>3.46391584238619</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>0.500621664486609</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,17 +3913,17 @@
       <c r="L10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M10" s="23" t="n">
-        <v>1.69856572589102</v>
-      </c>
-      <c r="N10" s="23" t="n">
-        <v>21.5229589092088</v>
-      </c>
-      <c r="O10" s="23" t="n">
-        <v>44.0883253352231</v>
-      </c>
-      <c r="P10" s="24" t="n">
-        <v>1.53856340445735E-008</v>
+      <c r="M10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>73.6766187866333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3934,7 @@
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -3932,17 +3961,17 @@
       <c r="L11" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M11" s="23" t="n">
-        <v>0.346340866919931</v>
-      </c>
-      <c r="N11" s="23" t="n">
-        <v>23.9336250953305</v>
-      </c>
-      <c r="O11" s="23" t="n">
-        <v>81.1547815147712</v>
-      </c>
-      <c r="P11" s="24" t="n">
-        <v>-0.000618770955740478</v>
+      <c r="M11" s="18" t="n">
+        <v>2.02671001851256</v>
+      </c>
+      <c r="N11" s="18" t="n">
+        <v>30.617608789842</v>
+      </c>
+      <c r="O11" s="18" t="n">
+        <v>29.0972235867367</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>-0.667875332566069</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,17 +4009,17 @@
       <c r="L12" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="M12" s="23" t="n">
-        <v>33.5223338482884</v>
-      </c>
-      <c r="N12" s="23" t="n">
-        <v>57.3076822669478</v>
-      </c>
-      <c r="O12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="24" t="n">
-        <v>0.192591180329164</v>
+      <c r="M12" s="18" t="n">
+        <v>3.03265862523471</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>19.9161097933616</v>
+      </c>
+      <c r="P12" s="18" t="n">
+        <v>-0.301511067475076</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,7 +4030,7 @@
       <c r="C13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -4028,17 +4057,17 @@
       <c r="L13" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="M13" s="23" t="n">
-        <v>33.1626240331351</v>
-      </c>
-      <c r="N13" s="23" t="n">
-        <v>56.7430511344639</v>
-      </c>
-      <c r="O13" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="24" t="n">
-        <v>0.192587886108958</v>
+      <c r="M13" s="18" t="n">
+        <v>0.932444561846482</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>77.6821830067264</v>
+      </c>
+      <c r="P13" s="18" t="n">
+        <v>-5.70506801578323</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,17 +4105,17 @@
       <c r="L14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M14" s="23" t="n">
-        <v>33.1957989804145</v>
-      </c>
-      <c r="N14" s="23" t="n">
-        <v>56.7955623625821</v>
-      </c>
-      <c r="O14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="24" t="n">
-        <v>0.192588177357502</v>
+      <c r="M14" s="18" t="n">
+        <v>2.81031491652884</v>
+      </c>
+      <c r="N14" s="18" t="n">
+        <v>11.3536242866654</v>
+      </c>
+      <c r="O14" s="18" t="n">
+        <v>7.78048777624603</v>
+      </c>
+      <c r="P14" s="18" t="n">
+        <v>-0.522221351301361</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,7 +4126,7 @@
       <c r="C15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -4124,17 +4153,101 @@
       <c r="L15" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M15" s="23" t="n">
-        <v>36.5879095028546</v>
-      </c>
-      <c r="N15" s="23" t="n">
-        <v>62.1705389398956</v>
-      </c>
-      <c r="O15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="24" t="n">
-        <v>0.192631416167793</v>
+      <c r="M15" s="18" t="n">
+        <v>2.90714396900099</v>
+      </c>
+      <c r="N15" s="18" t="n">
+        <v>11.1804399428542</v>
+      </c>
+      <c r="O15" s="18" t="n">
+        <v>16.573030033483</v>
+      </c>
+      <c r="P15" s="18" t="n">
+        <v>-0.295839279381219</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1.16350727253893</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1.07793569302513</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1.2136973004393</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1.29463549887924</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>8.17269290624526</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>6.01385386811937</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>2.02671001851256</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>3.03265862523471</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>0.932444561846482</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>2.81031491652884</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>2.90714396900099</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>1.96297164371508</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>7.39649773002693</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>2.79518463087158</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>2.9807675922412</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>2.917423064327</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>3.45355645355887</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <v>2.71164450148023</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>4.22423130476676</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>2.85466031067155</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>2.96904652493253</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>2.57904923010126</v>
+      </c>
+      <c r="AO15" s="0" t="n">
+        <v>1.80891888167954</v>
+      </c>
+      <c r="AP15" s="0" t="n">
+        <v>2.15926227083204</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>1.61473602905254</v>
+      </c>
+      <c r="AR15" s="0" t="n">
+        <v>1.2673177971795</v>
+      </c>
+      <c r="AS15" s="0" t="n">
+        <v>2.15600186358437</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,17 +4285,101 @@
       <c r="L16" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M16" s="23" t="n">
-        <v>2.93743316049985</v>
-      </c>
-      <c r="N16" s="23" t="n">
-        <v>6.02321877679942</v>
-      </c>
-      <c r="O16" s="23" t="n">
-        <v>0.000895703013670257</v>
-      </c>
-      <c r="P16" s="24" t="n">
-        <v>-0.648500925209512</v>
+      <c r="M16" s="18" t="n">
+        <v>1.96297164371508</v>
+      </c>
+      <c r="N16" s="18" t="n">
+        <v>11.2884454899697</v>
+      </c>
+      <c r="O16" s="18" t="n">
+        <v>38.0111542898065</v>
+      </c>
+      <c r="P16" s="18" t="n">
+        <v>-0.832355965267247</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>49.1399849628746</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>18.2070602504113</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>30.617608789842</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>11.3536242866654</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>11.1804399428542</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>11.2884454899697</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>28.8370109320214</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP16" s="0" t="n">
+        <v>11.4815697121736</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR16" s="0" t="n">
+        <v>30.5317783558591</v>
+      </c>
+      <c r="AS16" s="0" t="n">
+        <v>9.62929170919445</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,7 +4390,7 @@
       <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -4220,17 +4417,101 @@
       <c r="L17" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M17" s="23" t="n">
-        <v>0.546241734723377</v>
-      </c>
-      <c r="N17" s="23" t="n">
-        <v>55.7846599751225</v>
-      </c>
-      <c r="O17" s="23" t="n">
-        <v>0.0219152203397854</v>
-      </c>
-      <c r="P17" s="24" t="n">
-        <v>0.00965953243659845</v>
+      <c r="M17" s="18" t="n">
+        <v>7.39649773002693</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="18" t="n">
+        <v>6.59794787236012</v>
+      </c>
+      <c r="P17" s="18" t="n">
+        <v>0.876579936880845</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>81.2735970835033</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>49.9054556350647</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>78.1874566534008</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>33.6836732323602</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>6.79350124053939</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>3.46391584238619</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>29.0972235867367</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>19.9161097933616</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>77.6821830067264</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>7.78048777624603</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>16.573030033483</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>38.0111542898065</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>6.59794787236012</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>17.9150624230443</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>15.278211899149</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>13.1411960670902</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>15.8894069663392</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>16.9659743292184</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>1.90595201629507</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>20.0781982748035</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>17.5153432442137</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>24.5779463303679</v>
+      </c>
+      <c r="AO17" s="0" t="n">
+        <v>39.5363055939298</v>
+      </c>
+      <c r="AP17" s="0" t="n">
+        <v>36.4143275465047</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>50.821809075224</v>
+      </c>
+      <c r="AR17" s="0" t="n">
+        <v>65.5268793514666</v>
+      </c>
+      <c r="AS17" s="0" t="n">
+        <v>21.7687496662609</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,17 +4549,101 @@
       <c r="L18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M18" s="23" t="n">
-        <v>0.285880374231207</v>
-      </c>
-      <c r="N18" s="23" t="n">
-        <v>1.85788604079369</v>
-      </c>
-      <c r="O18" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="24" t="n">
-        <v>0.0238946813539275</v>
+      <c r="M18" s="18" t="n">
+        <v>2.79518463087158</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="18" t="n">
+        <v>17.9150624230443</v>
+      </c>
+      <c r="P18" s="18" t="n">
+        <v>-1.20523801936241</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>-1.51401372583589</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>-0.0755233453699304</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>-1.09493195709977</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>-2.05503870412887</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0.20094736977493</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0.500621664486609</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>73.6766187866333</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>-0.667875332566069</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>-0.301511067475076</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>-5.70506801578323</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>-0.522221351301361</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>-0.295839279381219</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>-0.832355965267247</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>0.876579936880845</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>-1.20523801936241</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>-2.18383546864293</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>0.132842053816624</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>-3.52996343796656</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>-1.92868052851865</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>1.02880875761761</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>0.193508462026692</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>3.13841134142027</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>1.84428679297462</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>0.455127392035685</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>-0.862596341834987</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>-2.23053415093352</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>-0.79074033172305</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>-0.807521694764212</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,7 +4654,7 @@
       <c r="C19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -4316,17 +4681,17 @@
       <c r="L19" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M19" s="23" t="n">
-        <v>0.305927278739768</v>
-      </c>
-      <c r="N19" s="23" t="n">
-        <v>2.07016552544315</v>
-      </c>
-      <c r="O19" s="23" t="n">
-        <v>0.0551110290220924</v>
-      </c>
-      <c r="P19" s="24" t="n">
-        <v>0.0219943836953044</v>
+      <c r="M19" s="18" t="n">
+        <v>2.9807675922412</v>
+      </c>
+      <c r="N19" s="18" t="n">
+        <v>28.8370109320214</v>
+      </c>
+      <c r="O19" s="18" t="n">
+        <v>15.278211899149</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>-2.18383546864293</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,17 +4729,17 @@
       <c r="L20" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="23" t="n">
-        <v>0.846333791798762</v>
-      </c>
-      <c r="N20" s="23" t="n">
-        <v>16.9174181294322</v>
-      </c>
-      <c r="O20" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="24" t="n">
-        <v>3.08897870205105E-005</v>
+      <c r="M20" s="18" t="n">
+        <v>2.917423064327</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="18" t="n">
+        <v>13.1411960670902</v>
+      </c>
+      <c r="P20" s="18" t="n">
+        <v>0.132842053816624</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,7 +4750,7 @@
       <c r="C21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -4412,17 +4777,17 @@
       <c r="L21" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M21" s="23" t="n">
-        <v>0.279701265964678</v>
-      </c>
-      <c r="N21" s="23" t="n">
-        <v>1.62560852773421</v>
-      </c>
-      <c r="O21" s="23" t="n">
-        <v>1.28694963043918</v>
-      </c>
-      <c r="P21" s="24" t="n">
-        <v>-2.009063101438E-007</v>
+      <c r="M21" s="18" t="n">
+        <v>3.45355645355887</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="18" t="n">
+        <v>15.8894069663392</v>
+      </c>
+      <c r="P21" s="18" t="n">
+        <v>-3.52996343796656</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,17 +4825,17 @@
       <c r="L22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M22" s="23" t="n">
-        <v>6.99219741030611</v>
-      </c>
-      <c r="N22" s="23" t="n">
-        <v>13.7428565533787</v>
-      </c>
-      <c r="O22" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="24" t="n">
-        <v>0.00337710220788101</v>
+      <c r="M22" s="18" t="n">
+        <v>2.71164450148023</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="18" t="n">
+        <v>16.9659743292184</v>
+      </c>
+      <c r="P22" s="18" t="n">
+        <v>-1.92868052851865</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,7 +4846,7 @@
       <c r="C23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -4508,17 +4873,17 @@
       <c r="L23" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M23" s="23" t="n">
-        <v>2.78849159238904</v>
-      </c>
-      <c r="N23" s="23" t="n">
-        <v>7.54356779108686</v>
-      </c>
-      <c r="O23" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="24" t="n">
-        <v>0.00026906055825715</v>
+      <c r="M23" s="18" t="n">
+        <v>4.22423130476676</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="18" t="n">
+        <v>1.90595201629507</v>
+      </c>
+      <c r="P23" s="18" t="n">
+        <v>1.02880875761761</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,17 +4921,17 @@
       <c r="L24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M24" s="23" t="n">
-        <v>0.717900745152544</v>
-      </c>
-      <c r="N24" s="23" t="n">
-        <v>3.63646927811634</v>
-      </c>
-      <c r="O24" s="23" t="n">
-        <v>0.0950544359872518</v>
-      </c>
-      <c r="P24" s="24" t="n">
-        <v>-0.000471012492275991</v>
+      <c r="M24" s="18" t="n">
+        <v>2.85466031067155</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="18" t="n">
+        <v>20.0781982748035</v>
+      </c>
+      <c r="P24" s="18" t="n">
+        <v>0.193508462026692</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4942,7 @@
       <c r="C25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -4604,17 +4969,17 @@
       <c r="L25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="23" t="n">
-        <v>0.654448171211672</v>
-      </c>
-      <c r="N25" s="23" t="n">
-        <v>1.97448260562947</v>
-      </c>
-      <c r="O25" s="23" t="n">
-        <v>0.284702551883331</v>
-      </c>
-      <c r="P25" s="24" t="n">
-        <v>0.000143001696818024</v>
+      <c r="M25" s="18" t="n">
+        <v>2.96904652493253</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="18" t="n">
+        <v>17.5153432442137</v>
+      </c>
+      <c r="P25" s="18" t="n">
+        <v>3.13841134142027</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,17 +5017,17 @@
       <c r="L26" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M26" s="23" t="n">
-        <v>1.75827273636371</v>
-      </c>
-      <c r="N26" s="23" t="n">
-        <v>5.77323983823695</v>
-      </c>
-      <c r="O26" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="24" t="n">
-        <v>0.000102389930915603</v>
+      <c r="M26" s="18" t="n">
+        <v>2.57904923010126</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="18" t="n">
+        <v>24.5779463303679</v>
+      </c>
+      <c r="P26" s="18" t="n">
+        <v>1.84428679297462</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,7 +5038,7 @@
       <c r="C27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -4700,10 +5065,18 @@
       <c r="L27" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
+      <c r="M27" s="18" t="n">
+        <v>1.80891888167954</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="18" t="n">
+        <v>39.5363055939298</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>0.455127392035685</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
@@ -4713,7 +5086,7 @@
       <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -4740,10 +5113,18 @@
       <c r="L28" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="28"/>
+      <c r="M28" s="18" t="n">
+        <v>2.15926227083204</v>
+      </c>
+      <c r="N28" s="18" t="n">
+        <v>11.4815697121736</v>
+      </c>
+      <c r="O28" s="18" t="n">
+        <v>36.4143275465047</v>
+      </c>
+      <c r="P28" s="18" t="n">
+        <v>-0.862596341834987</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
@@ -4753,7 +5134,7 @@
       <c r="C29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -4780,10 +5161,18 @@
       <c r="L29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
+      <c r="M29" s="18" t="n">
+        <v>1.61473602905254</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="18" t="n">
+        <v>50.821809075224</v>
+      </c>
+      <c r="P29" s="18" t="n">
+        <v>-2.23053415093352</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
@@ -4793,7 +5182,7 @@
       <c r="C30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -4820,10 +5209,18 @@
       <c r="L30" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="28"/>
+      <c r="M30" s="18" t="n">
+        <v>1.2673177971795</v>
+      </c>
+      <c r="N30" s="18" t="n">
+        <v>30.5317783558591</v>
+      </c>
+      <c r="O30" s="18" t="n">
+        <v>65.5268793514666</v>
+      </c>
+      <c r="P30" s="18" t="n">
+        <v>-0.79074033172305</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -4833,7 +5230,7 @@
       <c r="C31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -4860,10 +5257,18 @@
       <c r="L31" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="M31" s="18" t="n">
+        <v>2.15600186358437</v>
+      </c>
+      <c r="N31" s="18" t="n">
+        <v>9.62929170919445</v>
+      </c>
+      <c r="O31" s="18" t="n">
+        <v>21.7687496662609</v>
+      </c>
+      <c r="P31" s="18" t="n">
+        <v>-0.807521694764212</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
@@ -4882,43 +5287,6 @@
       <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>-1.21460183660255</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <f aca="false">DEGREES(K37)</f>
-        <v>-114.591559026165</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <f aca="false">DEGREES(L37)</f>
-        <v>-69.5915590261645</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <f aca="false">ABS(O37-P37)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
@@ -4937,43 +5305,6 @@
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <f aca="false">H37+1</f>
-        <v>2</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>-1.21460183660255</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <f aca="false">DEGREES(K38)</f>
-        <v>-114.591559026165</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <f aca="false">DEGREES(L38)</f>
-        <v>-69.5915590261645</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <f aca="false">ABS(O38-P38)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
@@ -4992,43 +5323,6 @@
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <f aca="false">H38+1</f>
-        <v>3</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>-1.21460183660255</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <f aca="false">DEGREES(K39)</f>
-        <v>-114.591559026165</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <f aca="false">DEGREES(L39)</f>
-        <v>-69.5915590261645</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <f aca="false">ABS(O39-P39)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
@@ -5047,43 +5341,6 @@
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <f aca="false">H39+1</f>
-        <v>4</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>-1.21460183660255</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <f aca="false">DEGREES(K40)</f>
-        <v>-114.591559026165</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <f aca="false">DEGREES(L40)</f>
-        <v>-69.5915590261645</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <f aca="false">ABS(O40-P40)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
@@ -5102,43 +5359,6 @@
       <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <f aca="false">H40+1</f>
-        <v>5</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>1.21460183660255</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <f aca="false">DEGREES(K41)</f>
-        <v>114.591559026165</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <f aca="false">DEGREES(L41)</f>
-        <v>69.5915590261645</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <f aca="false">ABS(O41-P41)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
@@ -5157,43 +5377,6 @@
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <f aca="false">H41+1</f>
-        <v>6</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>1.21460183660255</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <f aca="false">DEGREES(K42)</f>
-        <v>114.591559026165</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <f aca="false">DEGREES(L42)</f>
-        <v>69.5915590261645</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <f aca="false">ABS(O42-P42)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
@@ -5212,43 +5395,6 @@
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <f aca="false">H42+1</f>
-        <v>7</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>-1.34159265358979</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>-0.556194490192345</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <f aca="false">DEGREES(K43)</f>
-        <v>-76.8675968764516</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <f aca="false">DEGREES(L43)</f>
-        <v>-31.8675968764518</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <f aca="false">ABS(O43-P43)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
@@ -5267,43 +5413,6 @@
       <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <f aca="false">H43+1</f>
-        <v>8</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>1.05619449019235</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>1.84159265358979</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <f aca="false">DEGREES(K44)</f>
-        <v>60.5154866329933</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <f aca="false">DEGREES(L44)</f>
-        <v>105.515486632993</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <f aca="false">ABS(O44-P44)</f>
-        <v>44.9999999999995</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
@@ -5322,43 +5431,6 @@
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <f aca="false">H44+1</f>
-        <v>9</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>-2.28539816339745</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <f aca="false">DEGREES(K45)</f>
-        <v>-85.9436692696235</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <f aca="false">DEGREES(L45)</f>
-        <v>-130.943669269624</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <f aca="false">ABS(O45-P45)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
@@ -5377,43 +5449,6 @@
       <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <f aca="false">H45+1</f>
-        <v>10</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>0.856194490192345</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>1.64159265358979</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <f aca="false">DEGREES(K46)</f>
-        <v>49.0563307303765</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <f aca="false">DEGREES(L46)</f>
-        <v>94.0563307303763</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <f aca="false">ABS(O46-P46)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
@@ -5432,43 +5467,6 @@
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <f aca="false">H46+1</f>
-        <v>11</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>-2.28539816339745</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <f aca="false">DEGREES(K47)</f>
-        <v>-85.9436692696235</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <f aca="false">DEGREES(L47)</f>
-        <v>-130.943669269624</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <f aca="false">ABS(O47-P47)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
@@ -5487,43 +5485,6 @@
       <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <f aca="false">H47+1</f>
-        <v>12</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>-2.28539816339745</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <f aca="false">DEGREES(K48)</f>
-        <v>-85.9436692696235</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <f aca="false">DEGREES(L48)</f>
-        <v>-130.943669269624</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <f aca="false">ABS(O48-P48)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
@@ -5542,43 +5503,6 @@
       <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <f aca="false">H48+1</f>
-        <v>13</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>0.856194490192345</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>1.64159265358979</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <f aca="false">DEGREES(K49)</f>
-        <v>49.0563307303765</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <f aca="false">DEGREES(L49)</f>
-        <v>94.0563307303763</v>
-      </c>
-      <c r="Q49" s="0" t="n">
-        <f aca="false">ABS(O49-P49)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
@@ -5597,43 +5521,6 @@
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <f aca="false">H49+1</f>
-        <v>14</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>-2.68539816339745</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <f aca="false">DEGREES(K50)</f>
-        <v>-108.861981074856</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <f aca="false">DEGREES(L50)</f>
-        <v>-153.861981074857</v>
-      </c>
-      <c r="Q50" s="0" t="n">
-        <f aca="false">ABS(O50-P50)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
@@ -5652,43 +5539,6 @@
       <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <f aca="false">H50+1</f>
-        <v>15</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="0" t="n">
-        <f aca="false">DEGREES(K51)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P51" s="0" t="n">
-        <f aca="false">DEGREES(L51)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q51" s="0" t="n">
-        <f aca="false">ABS(O51-P51)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
@@ -5707,43 +5557,6 @@
       <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <f aca="false">H51+1</f>
-        <v>16</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <f aca="false">DEGREES(K52)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <f aca="false">DEGREES(L52)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <f aca="false">ABS(O52-P52)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
@@ -5762,43 +5575,6 @@
       <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <f aca="false">H52+1</f>
-        <v>17</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>-2.68539816339745</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <f aca="false">DEGREES(K53)</f>
-        <v>-108.861981074856</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <f aca="false">DEGREES(L53)</f>
-        <v>-153.861981074857</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <f aca="false">ABS(O53-P53)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
@@ -5817,43 +5593,6 @@
       <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <f aca="false">H53+1</f>
-        <v>18</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="L54" s="0" t="n">
-        <v>-1.11460183660255</v>
-      </c>
-      <c r="M54" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="0" t="n">
-        <f aca="false">DEGREES(K54)</f>
-        <v>-108.861981074856</v>
-      </c>
-      <c r="P54" s="0" t="n">
-        <f aca="false">DEGREES(L54)</f>
-        <v>-63.8619810748563</v>
-      </c>
-      <c r="Q54" s="0" t="n">
-        <f aca="false">ABS(O54-P54)</f>
-        <v>45.0000000000001</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
@@ -5872,43 +5611,6 @@
       <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <f aca="false">H54+1</f>
-        <v>19</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M55" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" s="0" t="n">
-        <f aca="false">DEGREES(K55)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <f aca="false">DEGREES(L55)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <f aca="false">ABS(O55-P55)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
@@ -5927,43 +5629,6 @@
       <c r="F56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <f aca="false">H55+1</f>
-        <v>20</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M56" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" s="0" t="n">
-        <f aca="false">DEGREES(K56)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <f aca="false">DEGREES(L56)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <f aca="false">ABS(O56-P56)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
@@ -5982,43 +5647,6 @@
       <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <f aca="false">H56+1</f>
-        <v>21</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <f aca="false">DEGREES(K57)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <f aca="false">DEGREES(L57)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <f aca="false">ABS(O57-P57)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
@@ -6037,43 +5665,6 @@
       <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <f aca="false">H57+1</f>
-        <v>22</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <f aca="false">DEGREES(K58)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <f aca="false">DEGREES(L58)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <f aca="false">ABS(O58-P58)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
@@ -6092,43 +5683,6 @@
       <c r="F59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <f aca="false">H58+1</f>
-        <v>23</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>0.456194490192345</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>1.24159265358979</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <f aca="false">DEGREES(K59)</f>
-        <v>26.1380189251436</v>
-      </c>
-      <c r="P59" s="0" t="n">
-        <f aca="false">DEGREES(L59)</f>
-        <v>71.1380189251434</v>
-      </c>
-      <c r="Q59" s="0" t="n">
-        <f aca="false">ABS(O59-P59)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
@@ -6147,43 +5701,6 @@
       <c r="F60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <f aca="false">H59+1</f>
-        <v>24</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>0.656194490192345</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>1.44159265358979</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="0" t="n">
-        <f aca="false">DEGREES(K60)</f>
-        <v>37.5971748277601</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <f aca="false">DEGREES(L60)</f>
-        <v>82.5971748277599</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <f aca="false">ABS(O60-P60)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
@@ -6202,43 +5719,6 @@
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <f aca="false">H60+1</f>
-        <v>25</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>0.756194490192345</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>1.54159265358979</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <f aca="false">DEGREES(K61)</f>
-        <v>43.3267527790683</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <f aca="false">DEGREES(L61)</f>
-        <v>88.3267527790681</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <f aca="false">ABS(O61-P61)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="n">
@@ -6257,43 +5737,6 @@
       <c r="F62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <f aca="false">H61+1</f>
-        <v>26</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>0.756194490192345</v>
-      </c>
-      <c r="L62" s="0" t="n">
-        <v>1.54159265358979</v>
-      </c>
-      <c r="M62" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" s="0" t="n">
-        <f aca="false">DEGREES(K62)</f>
-        <v>43.3267527790683</v>
-      </c>
-      <c r="P62" s="0" t="n">
-        <f aca="false">DEGREES(L62)</f>
-        <v>88.3267527790681</v>
-      </c>
-      <c r="Q62" s="0" t="n">
-        <f aca="false">ABS(O62-P62)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
@@ -6311,43 +5754,6 @@
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <f aca="false">H62+1</f>
-        <v>27</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <v>0.756194490192345</v>
-      </c>
-      <c r="L63" s="0" t="n">
-        <v>1.54159265358979</v>
-      </c>
-      <c r="M63" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" s="0" t="n">
-        <f aca="false">DEGREES(K63)</f>
-        <v>43.3267527790683</v>
-      </c>
-      <c r="P63" s="0" t="n">
-        <f aca="false">DEGREES(L63)</f>
-        <v>88.3267527790681</v>
-      </c>
-      <c r="Q63" s="0" t="n">
-        <f aca="false">ABS(O63-P63)</f>
-        <v>44.9999999999998</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,43 +5773,6 @@
       <c r="F64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <f aca="false">H63+1</f>
-        <v>28</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>0.756194490192345</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>1.54159265358979</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <f aca="false">DEGREES(K64)</f>
-        <v>43.3267527790683</v>
-      </c>
-      <c r="P64" s="0" t="n">
-        <f aca="false">DEGREES(L64)</f>
-        <v>88.3267527790681</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <f aca="false">ABS(O64-P64)</f>
-        <v>44.9999999999998</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="n">
@@ -6422,13 +5791,6 @@
       <c r="F65" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <f aca="false">H64+1</f>
-        <v>29</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
@@ -6447,13 +5809,6 @@
       <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <f aca="false">H65+1</f>
-        <v>30</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
@@ -6471,13 +5826,6 @@
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <f aca="false">H66+1</f>
-        <v>31</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6570,16 +5918,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="27" t="n">
         <v>5.75384240329263</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="27" t="n">
         <v>12.8743688511342</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="27" t="n">
         <v>722.332554344859</v>
       </c>
-      <c r="I4" s="24" t="n">
+      <c r="I4" s="28" t="n">
         <v>1.34799337039553</v>
       </c>
     </row>
@@ -6597,16 +5945,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="27" t="n">
         <v>0.637159937840428</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="27" t="n">
         <v>1.75841173461278</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="27" t="n">
         <v>56.613629111074</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="28" t="n">
         <v>0.701857458322819</v>
       </c>
     </row>
@@ -6624,16 +5972,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="27" t="n">
         <v>0.24501320545263</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="27" t="n">
         <v>1.51299438164206</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="27" t="n">
         <v>0.0659405394129786</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="28" t="n">
         <v>0.130993757970881</v>
       </c>
     </row>
@@ -6651,16 +5999,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="27" t="n">
         <v>21.7305541788523</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="27" t="n">
         <v>43.233621816111</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="27" t="n">
         <v>0.0187037226714759</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="28" t="n">
         <v>-0.000572671060287799</v>
       </c>
     </row>
@@ -6678,16 +6026,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="27" t="n">
         <v>3.76611787790736</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="27" t="n">
         <v>83.0274429225168</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="27" t="n">
         <v>430.024253254132</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="28" t="n">
         <v>1.26416173555729</v>
       </c>
     </row>
@@ -6705,16 +6053,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="27" t="n">
         <v>0.262910819249296</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="27" t="n">
         <v>96.2723966291592</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="27" t="n">
         <v>24.8803624319633</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="28" t="n">
         <v>0.499041982536671</v>
       </c>
     </row>
@@ -6732,16 +6080,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="27" t="n">
         <v>0.88740861462869</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="27" t="n">
         <v>7.51588981517334</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="27" t="n">
         <v>2.05726587939357</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="28" t="n">
         <v>4.44089209850063E-016</v>
       </c>
     </row>
@@ -6759,16 +6107,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="27" t="n">
         <v>0.691476592538225</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="27" t="n">
         <v>6.61791342758306</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="27" t="n">
         <v>4.09639629069702</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="28" t="n">
         <v>0.000304734750786961</v>
       </c>
     </row>
@@ -6786,16 +6134,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="27" t="n">
         <v>5.77255749578023</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="27" t="n">
         <v>13.108882185639</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="27" t="n">
         <v>722.332553071076</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="28" t="n">
         <v>1.34799337016007</v>
       </c>
     </row>
@@ -6813,16 +6161,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="27" t="n">
         <v>5.72289672594113</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="27" t="n">
         <v>12.9405091865082</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="27" t="n">
         <v>722.332554336582</v>
       </c>
-      <c r="I13" s="24" t="n">
+      <c r="I13" s="28" t="n">
         <v>1.347993370394</v>
       </c>
     </row>
@@ -6840,16 +6188,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="27" t="n">
         <v>5.72736225142278</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="27" t="n">
         <v>12.9562427236867</v>
       </c>
-      <c r="H14" s="23" t="n">
+      <c r="H14" s="27" t="n">
         <v>722.332554231642</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="28" t="n">
         <v>1.3479933703746</v>
       </c>
     </row>
@@ -6867,16 +6215,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="27" t="n">
         <v>1.6998034857309</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="27" t="n">
         <v>3.12680438082688</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="27" t="n">
         <v>14.2983347680544</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="28" t="n">
         <v>0.406370768623511</v>
       </c>
     </row>
@@ -6894,16 +6242,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="27" t="n">
         <v>2.83218426840517</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="27" t="n">
         <v>4.59519442358675</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="27" t="n">
         <v>38.6816406220435</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="28" t="n">
         <v>0.598655024274848</v>
       </c>
     </row>
@@ -6921,16 +6269,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="27" t="n">
         <v>63.4580511786446</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="27" t="n">
         <v>87.7308720260948</v>
       </c>
-      <c r="H17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24" t="n">
+      <c r="H17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="n">
         <v>0.0525931236044914</v>
       </c>
     </row>
@@ -6948,16 +6296,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="27" t="n">
         <v>0.252646880629443</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="27" t="n">
         <v>1.50974285923043</v>
       </c>
-      <c r="H18" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24" t="n">
+      <c r="H18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="n">
         <v>0.128756559768998</v>
       </c>
     </row>
@@ -6975,16 +6323,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="27" t="n">
         <v>0.32114823505467</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="27" t="n">
         <v>57.0106831741129</v>
       </c>
-      <c r="H19" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="24" t="n">
+      <c r="H19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28" t="n">
         <v>0.118556172732574</v>
       </c>
     </row>
@@ -7002,16 +6350,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="27" t="n">
         <v>16.8339925275767</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="27" t="n">
         <v>32.6387772509742</v>
       </c>
-      <c r="H20" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24" t="n">
+      <c r="H20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28" t="n">
         <v>8.61071880238207E-005</v>
       </c>
     </row>
@@ -7029,16 +6377,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="27" t="n">
         <v>0.698161871075377</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="27" t="n">
         <v>3.68818069558336</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="27" t="n">
         <v>1.43810868160659</v>
       </c>
-      <c r="I21" s="24" t="n">
+      <c r="I21" s="28" t="n">
         <v>0.000263724446790681</v>
       </c>
     </row>
@@ -7056,16 +6404,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="27" t="n">
         <v>6.99219741030611</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="27" t="n">
         <v>13.7428565533787</v>
       </c>
-      <c r="H22" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24" t="n">
+      <c r="H22" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28" t="n">
         <v>0.00337710220788101</v>
       </c>
     </row>
@@ -7083,16 +6431,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="27" t="n">
         <v>2.78849159238904</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="27" t="n">
         <v>7.54356779108686</v>
       </c>
-      <c r="H23" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="24" t="n">
+      <c r="H23" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28" t="n">
         <v>0.00026906055825715</v>
       </c>
     </row>
@@ -7110,16 +6458,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="27" t="n">
         <v>0.717900745152544</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="27" t="n">
         <v>3.63646927811634</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="27" t="n">
         <v>0.0950544359872518</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="28" t="n">
         <v>-0.000471012492275991</v>
       </c>
     </row>
@@ -7137,16 +6485,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="27" t="n">
         <v>0.654448171211672</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="27" t="n">
         <v>1.97448260562947</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="27" t="n">
         <v>0.284702551883331</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="28" t="n">
         <v>0.000143001696818024</v>
       </c>
     </row>
@@ -7164,16 +6512,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="27" t="n">
         <v>1.75827273636371</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="27" t="n">
         <v>5.77323983823695</v>
       </c>
-      <c r="H26" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24" t="n">
+      <c r="H26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28" t="n">
         <v>0.000102389930915603</v>
       </c>
     </row>
@@ -7191,16 +6539,16 @@
       <c r="E27" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="27" t="n">
         <v>0.678367014364614</v>
       </c>
-      <c r="G27" s="23" t="n">
+      <c r="G27" s="27" t="n">
         <v>4.05614005447975</v>
       </c>
-      <c r="H27" s="23" t="n">
+      <c r="H27" s="27" t="n">
         <v>3.70836911177386</v>
       </c>
-      <c r="I27" s="24" t="n">
+      <c r="I27" s="28" t="n">
         <v>0.000291268261205069</v>
       </c>
     </row>
@@ -7218,16 +6566,16 @@
       <c r="E28" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="27" t="n">
         <v>0.659642850839173</v>
       </c>
-      <c r="G28" s="23" t="n">
+      <c r="G28" s="27" t="n">
         <v>3.91351357277791</v>
       </c>
-      <c r="H28" s="23" t="n">
+      <c r="H28" s="27" t="n">
         <v>4.02023385366139</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="28" t="n">
         <v>0.000662087463754846</v>
       </c>
     </row>
@@ -7245,16 +6593,16 @@
       <c r="E29" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="27" t="n">
         <v>0.671817162976417</v>
       </c>
-      <c r="G29" s="23" t="n">
+      <c r="G29" s="27" t="n">
         <v>3.78930023437778</v>
       </c>
-      <c r="H29" s="23" t="n">
+      <c r="H29" s="27" t="n">
         <v>4.1273231664773</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="28" t="n">
         <v>0.00098940847193707</v>
       </c>
     </row>
@@ -7272,16 +6620,16 @@
       <c r="E30" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="27" t="n">
         <v>0.652604616133681</v>
       </c>
-      <c r="G30" s="23" t="n">
+      <c r="G30" s="27" t="n">
         <v>3.78170391523133</v>
       </c>
-      <c r="H30" s="23" t="n">
+      <c r="H30" s="27" t="n">
         <v>4.00848917821761</v>
       </c>
-      <c r="I30" s="24" t="n">
+      <c r="I30" s="28" t="n">
         <v>-9.85541209401752E-005</v>
       </c>
     </row>
@@ -7299,16 +6647,16 @@
       <c r="E31" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="27" t="n">
         <v>0.657370287360328</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="27" t="n">
         <v>3.7759718137331</v>
       </c>
-      <c r="H31" s="23" t="n">
+      <c r="H31" s="27" t="n">
         <v>4.08011671247313</v>
       </c>
-      <c r="I31" s="24" t="n">
+      <c r="I31" s="28" t="n">
         <v>-2.44164710385686E-005</v>
       </c>
     </row>
@@ -7409,7 +6757,7 @@
       <c r="H4" s="29" t="n">
         <v>1.98416217121795</v>
       </c>
-      <c r="I4" s="24" t="n">
+      <c r="I4" s="28" t="n">
         <v>-0.387465593978803</v>
       </c>
     </row>
@@ -7436,7 +6784,7 @@
       <c r="H5" s="29" t="n">
         <v>2.37007770382078</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="28" t="n">
         <v>-0.202174164372096</v>
       </c>
     </row>
@@ -7463,7 +6811,7 @@
       <c r="H6" s="29" t="n">
         <v>3.89628967006523</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="28" t="n">
         <v>0.106480249698414</v>
       </c>
     </row>
@@ -7490,7 +6838,7 @@
       <c r="H7" s="29" t="n">
         <v>24.593850321264</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="28" t="n">
         <v>-24.5760554327356</v>
       </c>
     </row>
@@ -7517,7 +6865,7 @@
       <c r="H8" s="29" t="n">
         <v>1.95286601864273</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="28" t="n">
         <v>-9.98652160146816</v>
       </c>
     </row>
@@ -7544,7 +6892,7 @@
       <c r="H9" s="29" t="n">
         <v>70.9353834024444</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="28" t="n">
         <v>0.0102298026278973</v>
       </c>
     </row>
@@ -7571,7 +6919,7 @@
       <c r="H10" s="29" t="n">
         <v>179.575763722594</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="28" t="n">
         <v>-0.493299500590538</v>
       </c>
     </row>
@@ -7598,7 +6946,7 @@
       <c r="H11" s="29" t="n">
         <v>86.1374848876467</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="28" t="n">
         <v>-30.5340405902651</v>
       </c>
     </row>
@@ -7625,7 +6973,7 @@
       <c r="H12" s="29" t="n">
         <v>1.34646901530895</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="28" t="n">
         <v>-0.509301593215696</v>
       </c>
     </row>
@@ -7652,7 +7000,7 @@
       <c r="H13" s="29" t="n">
         <v>1.97631150701798</v>
       </c>
-      <c r="I13" s="24" t="n">
+      <c r="I13" s="28" t="n">
         <v>-0.388893870360668</v>
       </c>
     </row>
@@ -7679,7 +7027,7 @@
       <c r="H14" s="29" t="n">
         <v>1.9147985226035</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="28" t="n">
         <v>-0.401663128774153</v>
       </c>
     </row>
@@ -7706,7 +7054,7 @@
       <c r="H15" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="28" t="n">
         <v>0.0779377590162653</v>
       </c>
     </row>
@@ -7733,7 +7081,7 @@
       <c r="H16" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="28" t="n">
         <v>18.3950915684304</v>
       </c>
     </row>
@@ -7760,7 +7108,7 @@
       <c r="H17" s="29" t="n">
         <v>4.92901344325589</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="28" t="n">
         <v>-0.124921208540499</v>
       </c>
     </row>
@@ -7787,7 +7135,7 @@
       <c r="H18" s="29" t="n">
         <v>3.92276495512183</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="28" t="n">
         <v>0.100002466228254</v>
       </c>
     </row>
@@ -7814,7 +7162,7 @@
       <c r="H19" s="29" t="n">
         <v>3.8433814144283</v>
       </c>
-      <c r="I19" s="24" t="n">
+      <c r="I19" s="28" t="n">
         <v>0.0488061523669714</v>
       </c>
     </row>
@@ -7841,7 +7189,7 @@
       <c r="H20" s="29" t="n">
         <v>18.1212284713441</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="28" t="n">
         <v>0.331731513115152</v>
       </c>
     </row>
@@ -7868,7 +7216,7 @@
       <c r="H21" s="29" t="n">
         <v>74.6546309444317</v>
       </c>
-      <c r="I21" s="24" t="n">
+      <c r="I21" s="28" t="n">
         <v>0.0139928833825209</v>
       </c>
     </row>
@@ -7895,7 +7243,7 @@
       <c r="H22" s="29" t="n">
         <v>3.44122229879027</v>
       </c>
-      <c r="I22" s="24" t="n">
+      <c r="I22" s="28" t="n">
         <v>-0.0136389352420991</v>
       </c>
     </row>
@@ -7922,7 +7270,7 @@
       <c r="H23" s="29" t="n">
         <v>2.64202139135141</v>
       </c>
-      <c r="I23" s="24" t="n">
+      <c r="I23" s="28" t="n">
         <v>0.0365331958331936</v>
       </c>
     </row>
@@ -7949,7 +7297,7 @@
       <c r="H24" s="29" t="n">
         <v>2.08031931485542</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="28" t="n">
         <v>0.0405649028655191</v>
       </c>
     </row>
@@ -7976,7 +7324,7 @@
       <c r="H25" s="29" t="n">
         <v>1.82747002688339</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="28" t="n">
         <v>-0.0289639103630961</v>
       </c>
     </row>
@@ -8003,7 +7351,7 @@
       <c r="H26" s="29" t="n">
         <v>2.55819505254982</v>
       </c>
-      <c r="I26" s="24" t="n">
+      <c r="I26" s="28" t="n">
         <v>-0.00652973547403946</v>
       </c>
     </row>
@@ -8030,7 +7378,7 @@
       <c r="H27" s="29" t="n">
         <v>1.77156691176326</v>
       </c>
-      <c r="I27" s="24" t="n">
+      <c r="I27" s="28" t="n">
         <v>-0.00697239449949905</v>
       </c>
     </row>
@@ -8057,7 +7405,7 @@
       <c r="H28" s="29" t="n">
         <v>0.138691077822983</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="28" t="n">
         <v>-0.00796818530952947</v>
       </c>
     </row>
@@ -8084,7 +7432,7 @@
       <c r="H29" s="29" t="n">
         <v>1.17765134656718</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="28" t="n">
         <v>0.00423382867296596</v>
       </c>
     </row>
@@ -8096,10 +7444,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -8109,10 +7457,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -8202,16 +7550,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="27" t="n">
         <v>19.2621520749175</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="27" t="n">
         <v>33.3785010595985</v>
       </c>
-      <c r="H4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24" t="n">
+      <c r="H4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28" t="n">
         <v>0.142740295602177</v>
       </c>
     </row>
@@ -8229,16 +7577,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="27" t="n">
         <v>7.80874633322939</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="27" t="n">
         <v>14.8172547191419</v>
       </c>
-      <c r="H5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24" t="n">
+      <c r="H5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28" t="n">
         <v>0.0922797349843051</v>
       </c>
     </row>
@@ -8256,16 +7604,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="27" t="n">
         <v>0.284100362366068</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="27" t="n">
         <v>1.88908079307758</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="27" t="n">
         <v>0.0306714621541637</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="28" t="n">
         <v>0.0191115005281781</v>
       </c>
     </row>
@@ -8283,16 +7631,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="27" t="n">
         <v>13.3560053878281</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="27" t="n">
         <v>20.5367493340953</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="27" t="n">
         <v>1.39141616289655</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="28" t="n">
         <v>-2.27530100260775E-007</v>
       </c>
     </row>
@@ -8310,16 +7658,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="27" t="n">
         <v>25.0753478684354</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="27" t="n">
         <v>74.9554719929574</v>
       </c>
-      <c r="H8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24" t="n">
+      <c r="H8" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="n">
         <v>0.132957842101011</v>
       </c>
     </row>
@@ -8337,16 +7685,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="27" t="n">
         <v>59.0396925942689</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="27" t="n">
         <v>91.447128732485</v>
       </c>
-      <c r="H9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="n">
+      <c r="H9" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="n">
         <v>0.0786703129042171</v>
       </c>
     </row>
@@ -8364,16 +7712,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="27" t="n">
         <v>1.9352487791646</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="27" t="n">
         <v>21.2504697094425</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="27" t="n">
         <v>46.1009154680728</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="28" t="n">
         <v>1.6292066917778E-008</v>
       </c>
     </row>
@@ -8391,16 +7739,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="27" t="n">
         <v>0.344410568241937</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="27" t="n">
         <v>24.0794994815172</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="27" t="n">
         <v>79.571248132147</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="28" t="n">
         <v>-0.000524534711026647</v>
       </c>
     </row>
@@ -8418,16 +7766,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="27" t="n">
         <v>19.466826078489</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="27" t="n">
         <v>33.7440903526329</v>
       </c>
-      <c r="H12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24" t="n">
+      <c r="H12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="n">
         <v>0.142740327471353</v>
       </c>
     </row>
@@ -8445,16 +7793,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="27" t="n">
         <v>19.2733996071382</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="27" t="n">
         <v>33.4089488234601</v>
       </c>
-      <c r="H13" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24" t="n">
+      <c r="H13" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28" t="n">
         <v>0.142740295900879</v>
       </c>
     </row>
@@ -8472,16 +7820,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="27" t="n">
         <v>19.2912167020926</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="27" t="n">
         <v>33.4400941365629</v>
       </c>
-      <c r="H14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24" t="n">
+      <c r="H14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="n">
         <v>0.142740298606785</v>
       </c>
     </row>
@@ -8499,16 +7847,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="27" t="n">
         <v>21.3407209134512</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="27" t="n">
         <v>36.9306631232461</v>
       </c>
-      <c r="H15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24" t="n">
+      <c r="H15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="n">
         <v>0.142740871421425</v>
       </c>
     </row>
@@ -8526,16 +7874,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="27" t="n">
         <v>2.92795800816525</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="27" t="n">
         <v>5.93211351019386</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="27" t="n">
         <v>0.000873958914215933</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="28" t="n">
         <v>-0.648501136394992</v>
       </c>
     </row>
@@ -8553,16 +7901,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="27" t="n">
         <v>0.441463999974583</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="27" t="n">
         <v>44.7355511291702</v>
       </c>
-      <c r="H17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24" t="n">
+      <c r="H17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="n">
         <v>0.00775032922005522</v>
       </c>
     </row>
@@ -8580,16 +7928,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="27" t="n">
         <v>0.284450828132284</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="27" t="n">
         <v>1.88807794057824</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="27" t="n">
         <v>0.0914197901178637</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="28" t="n">
         <v>0.0191136878005562</v>
       </c>
     </row>
@@ -8607,16 +7955,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="27" t="n">
         <v>0.29399299052843</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="27" t="n">
         <v>1.99283668992357</v>
       </c>
-      <c r="H19" s="23" t="n">
+      <c r="H19" s="27" t="n">
         <v>0.0903554425490949</v>
       </c>
-      <c r="I19" s="24" t="n">
+      <c r="I19" s="28" t="n">
         <v>0.0176097089448594</v>
       </c>
     </row>
@@ -8634,16 +7982,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="27" t="n">
         <v>0.577602220106126</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="27" t="n">
         <v>14.182257317903</v>
       </c>
-      <c r="H20" s="23" t="n">
+      <c r="H20" s="27" t="n">
         <v>0.00334230367500243</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="28" t="n">
         <v>4.3099586279377E-005</v>
       </c>
     </row>
@@ -8661,16 +8009,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="27" t="n">
         <v>0.254554373944176</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="27" t="n">
         <v>2.34974352422668</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="27" t="n">
         <v>2.09774056609424</v>
       </c>
-      <c r="I21" s="24" t="n">
+      <c r="I21" s="28" t="n">
         <v>-3.33997446977374E-007</v>
       </c>
     </row>
@@ -8688,16 +8036,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="27" t="n">
         <v>0.354176941859994</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="27" t="n">
         <v>2.47313813931296</v>
       </c>
-      <c r="H22" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24" t="n">
+      <c r="H22" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28" t="n">
         <v>0.0065586260804118</v>
       </c>
     </row>
@@ -8715,16 +8063,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="27" t="n">
         <v>0.346197331469937</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="27" t="n">
         <v>2.22716528709415</v>
       </c>
-      <c r="H23" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="24" t="n">
+      <c r="H23" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28" t="n">
         <v>0.00137797367135789</v>
       </c>
     </row>
@@ -8742,16 +8090,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="27" t="n">
         <v>0.308497395521393</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="27" t="n">
         <v>1.88016486032182</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="27" t="n">
         <v>0.121987098261145</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="28" t="n">
         <v>-0.000231224911036609</v>
       </c>
     </row>
@@ -8769,16 +8117,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="27" t="n">
         <v>0.278484902139614</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="27" t="n">
         <v>1.65093415130578</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="27" t="n">
         <v>1.04575839166203</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="28" t="n">
         <v>-0.000415599896828822</v>
       </c>
     </row>
@@ -8796,16 +8144,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="27" t="n">
         <v>0.323318294258886</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="27" t="n">
         <v>2.03827762430259</v>
       </c>
-      <c r="H26" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24" t="n">
+      <c r="H26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28" t="n">
         <v>0.000295198904276206</v>
       </c>
     </row>
@@ -8817,10 +8165,10 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
@@ -8830,10 +8178,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
@@ -8843,10 +8191,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
@@ -8856,10 +8204,10 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
@@ -8869,10 +8217,10 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -8962,16 +8310,16 @@
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="27" t="n">
         <v>1.8670458099257</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="27" t="n">
         <v>2.92312008245632</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="27" t="n">
         <v>0.0217278440997948</v>
       </c>
-      <c r="I4" s="24" t="n">
+      <c r="I4" s="28" t="n">
         <v>-0.0626274652631005</v>
       </c>
     </row>
@@ -8989,16 +8337,16 @@
       <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="27" t="n">
         <v>1.95584438372091</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="27" t="n">
         <v>3.09694931275906</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="27" t="n">
         <v>0.00642843342428812</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="28" t="n">
         <v>-0.0623652624436888</v>
       </c>
     </row>
@@ -9016,16 +8364,16 @@
       <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="27" t="n">
         <v>0.932217797733494</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="27" t="n">
         <v>2.33499010642418</v>
       </c>
-      <c r="H6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24" t="n">
+      <c r="H6" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="n">
         <v>-0.0382739134788843</v>
       </c>
     </row>
@@ -9043,16 +8391,16 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="27" t="n">
         <v>1.40256287524312</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="27" t="n">
         <v>95.6755581169279</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="27" t="n">
         <v>3.38741614562237</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="28" t="n">
         <v>-0.011640029837007</v>
       </c>
     </row>
@@ -9070,16 +8418,16 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="27" t="n">
         <v>1.87347505270568</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="27" t="n">
         <v>2.88735487467525</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="27" t="n">
         <v>0.00464649549956064</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="28" t="n">
         <v>-0.0630452205804044</v>
       </c>
     </row>
@@ -9097,16 +8445,16 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="27" t="n">
         <v>1.86835707068821</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="27" t="n">
         <v>2.85273674606552</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="27" t="n">
         <v>0.0360032611518069</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="28" t="n">
         <v>-0.0624759529988845</v>
       </c>
     </row>
@@ -9124,16 +8472,16 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="27" t="n">
         <v>1.39671212143601</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="27" t="n">
         <v>12.4055227670891</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="27" t="n">
         <v>4.1066555684252</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="28" t="n">
         <v>-2.22044604925031E-016</v>
       </c>
     </row>
@@ -9151,16 +8499,16 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="27" t="n">
         <v>1.62668369223076</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="27" t="n">
         <v>61.5977071000913</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="27" t="n">
         <v>4.0729925384313</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="28" t="n">
         <v>-0.000156185745572079</v>
       </c>
     </row>
@@ -9178,16 +8526,16 @@
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="27" t="n">
         <v>1.87939683670391</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="27" t="n">
         <v>2.91317210965989</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="27" t="n">
         <v>0.0488452410774665</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="28" t="n">
         <v>-0.0622062613803285</v>
       </c>
     </row>
@@ -9205,16 +8553,16 @@
       <c r="E13" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="27" t="n">
         <v>1.86557738830127</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="27" t="n">
         <v>2.91971093115486</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="27" t="n">
         <v>0.0233250351419745</v>
       </c>
-      <c r="I13" s="24" t="n">
+      <c r="I13" s="28" t="n">
         <v>-0.0626031519415464</v>
       </c>
     </row>
@@ -9232,16 +8580,16 @@
       <c r="E14" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="27" t="n">
         <v>1.85170288969079</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="27" t="n">
         <v>2.88766455116387</v>
       </c>
-      <c r="H14" s="23" t="n">
+      <c r="H14" s="27" t="n">
         <v>0.0409225242637534</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="28" t="n">
         <v>-0.0623330522521675</v>
       </c>
     </row>
@@ -9259,16 +8607,16 @@
       <c r="E15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="27" t="n">
         <v>1.40689373809794</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="27" t="n">
         <v>3.37760180409583</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="27" t="n">
         <v>0.012572892170426</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="28" t="n">
         <v>-0.0627631436610132</v>
       </c>
     </row>
@@ -9286,16 +8634,16 @@
       <c r="E16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="27" t="n">
         <v>1.74124577868753</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="27" t="n">
         <v>3.16188648381312</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="27" t="n">
         <v>25.5178357258306</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="28" t="n">
         <v>0.504125594763773</v>
       </c>
     </row>
@@ -9313,16 +8661,16 @@
       <c r="E17" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="27" t="n">
         <v>0.77010620487711</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="27" t="n">
         <v>72.4192209182288</v>
       </c>
-      <c r="H17" s="23" t="n">
+      <c r="H17" s="27" t="n">
         <v>1.29549102233391</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="28" t="n">
         <v>-0.0188674054879086</v>
       </c>
     </row>
@@ -9340,16 +8688,16 @@
       <c r="E18" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="27" t="n">
         <v>0.918131466268879</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="27" t="n">
         <v>2.3137677838738</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="27" t="n">
         <v>0.0226310118289774</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="28" t="n">
         <v>-0.0380470462792886</v>
       </c>
     </row>
@@ -9367,16 +8715,16 @@
       <c r="E19" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="27" t="n">
         <v>0.900525425327351</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="27" t="n">
         <v>2.25537329631811</v>
       </c>
-      <c r="H19" s="23" t="n">
+      <c r="H19" s="27" t="n">
         <v>0.150938432674597</v>
       </c>
-      <c r="I19" s="24" t="n">
+      <c r="I19" s="28" t="n">
         <v>-0.0360444046758288</v>
       </c>
     </row>
@@ -9394,16 +8742,16 @@
       <c r="E20" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="27" t="n">
         <v>0.669775614036524</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="27" t="n">
         <v>38.0664150786302</v>
       </c>
-      <c r="H20" s="23" t="n">
+      <c r="H20" s="27" t="n">
         <v>2.75424984728212</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="28" t="n">
         <v>0.000832573760308097</v>
       </c>
     </row>
@@ -9421,16 +8769,16 @@
       <c r="E21" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="27" t="n">
         <v>0.681035359070858</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="27" t="n">
         <v>5.90691222591391</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="27" t="n">
         <v>3.66550065509421</v>
       </c>
-      <c r="I21" s="24" t="n">
+      <c r="I21" s="28" t="n">
         <v>0.000268690135639682</v>
       </c>
     </row>
@@ -9448,16 +8796,16 @@
       <c r="E22" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="27" t="n">
         <v>0.869688028326164</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="27" t="n">
         <v>3.77702750396131</v>
       </c>
-      <c r="H22" s="23" t="n">
+      <c r="H22" s="27" t="n">
         <v>0.637939472174565</v>
       </c>
-      <c r="I22" s="24" t="n">
+      <c r="I22" s="28" t="n">
         <v>-0.0333585174019686</v>
       </c>
     </row>
@@ -9475,16 +8823,16 @@
       <c r="E23" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="27" t="n">
         <v>0.826897045004426</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="27" t="n">
         <v>4.4129585182635</v>
       </c>
-      <c r="H23" s="23" t="n">
+      <c r="H23" s="27" t="n">
         <v>1.33025025299907</v>
       </c>
-      <c r="I23" s="24" t="n">
+      <c r="I23" s="28" t="n">
         <v>-0.0275888693060224</v>
       </c>
     </row>
@@ -9502,16 +8850,16 @@
       <c r="E24" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="27" t="n">
         <v>0.780116968277711</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="27" t="n">
         <v>4.59063622113463</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="27" t="n">
         <v>2.00500219517992</v>
       </c>
-      <c r="I24" s="24" t="n">
+      <c r="I24" s="28" t="n">
         <v>-0.0209897310515128</v>
       </c>
     </row>
@@ -9529,16 +8877,16 @@
       <c r="E25" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="27" t="n">
         <v>0.746802442964768</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="27" t="n">
         <v>4.61869648656106</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="27" t="n">
         <v>2.50631489647808</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="28" t="n">
         <v>-0.0159029109324005</v>
       </c>
     </row>
@@ -9556,16 +8904,16 @@
       <c r="E26" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="27" t="n">
         <v>0.802014989180577</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="27" t="n">
         <v>4.55892877228734</v>
       </c>
-      <c r="H26" s="23" t="n">
+      <c r="H26" s="27" t="n">
         <v>1.68805718750391</v>
       </c>
-      <c r="I26" s="24" t="n">
+      <c r="I26" s="28" t="n">
         <v>-0.0240868778234611</v>
       </c>
     </row>
@@ -9583,16 +8931,16 @@
       <c r="E27" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="27" t="n">
         <v>0.662584862555042</v>
       </c>
-      <c r="G27" s="23" t="n">
+      <c r="G27" s="27" t="n">
         <v>4.41334277557914</v>
       </c>
-      <c r="H27" s="23" t="n">
+      <c r="H27" s="27" t="n">
         <v>3.89237523163908</v>
       </c>
-      <c r="I27" s="24" t="n">
+      <c r="I27" s="28" t="n">
         <v>-0.00137586935563938</v>
       </c>
     </row>
@@ -9610,16 +8958,16 @@
       <c r="E28" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="27" t="n">
         <v>0.654924314228345</v>
       </c>
-      <c r="G28" s="23" t="n">
+      <c r="G28" s="27" t="n">
         <v>4.06336799182643</v>
       </c>
-      <c r="H28" s="23" t="n">
+      <c r="H28" s="27" t="n">
         <v>4.08787026894879</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="28" t="n">
         <v>-7.15460870015505E-006</v>
       </c>
     </row>
@@ -9637,16 +8985,16 @@
       <c r="E29" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="27" t="n">
         <v>0.654881610080331</v>
       </c>
-      <c r="G29" s="23" t="n">
+      <c r="G29" s="27" t="n">
         <v>3.92304191973706</v>
       </c>
-      <c r="H29" s="23" t="n">
+      <c r="H29" s="27" t="n">
         <v>4.10619083618835</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="28" t="n">
         <v>-6.95456281452067E-008</v>
       </c>
     </row>
@@ -9664,16 +9012,16 @@
       <c r="E30" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="27" t="n">
         <v>0.654881638825</v>
       </c>
-      <c r="G30" s="23" t="n">
+      <c r="G30" s="27" t="n">
         <v>3.87032540011501</v>
       </c>
-      <c r="H30" s="23" t="n">
+      <c r="H30" s="27" t="n">
         <v>4.1308611079462</v>
       </c>
-      <c r="I30" s="24" t="n">
+      <c r="I30" s="28" t="n">
         <v>-5.07613038269739E-008</v>
       </c>
     </row>
@@ -9691,16 +9039,16 @@
       <c r="E31" s="9" t="n">
         <v>0.01</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="27" t="n">
         <v>0.654879582007219</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="27" t="n">
         <v>3.89171323852913</v>
       </c>
-      <c r="H31" s="23" t="n">
+      <c r="H31" s="27" t="n">
         <v>4.12146589712699</v>
       </c>
-      <c r="I31" s="24" t="n">
+      <c r="I31" s="28" t="n">
         <v>1.03693490682844E-007</v>
       </c>
     </row>
